--- a/Code/Results/Cases/Case_5_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.73504609833628</v>
+        <v>25.57945711921841</v>
       </c>
       <c r="C2">
-        <v>13.88046930092553</v>
+        <v>18.78515609301811</v>
       </c>
       <c r="D2">
-        <v>9.851839395217686</v>
+        <v>4.691464227989033</v>
       </c>
       <c r="E2">
-        <v>7.585036816838028</v>
+        <v>9.729821197809107</v>
       </c>
       <c r="F2">
-        <v>63.23882600385817</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>36.13159530840749</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.639643237029302</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.892789828658094</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>15.33234930838705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>11.77450491348014</v>
+      </c>
+      <c r="O2">
+        <v>25.66152137929198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.09281388853077</v>
+        <v>23.76299388110931</v>
       </c>
       <c r="C3">
-        <v>12.86485698595872</v>
+        <v>17.44619285043418</v>
       </c>
       <c r="D3">
-        <v>9.381726190212749</v>
+        <v>4.531034308793364</v>
       </c>
       <c r="E3">
-        <v>7.363627209095239</v>
+        <v>9.338397387908497</v>
       </c>
       <c r="F3">
-        <v>59.31526824326606</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>34.61107194432518</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.507991585155056</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.450277086911873</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.22227619465523</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>12.07613621735471</v>
+      </c>
+      <c r="O3">
+        <v>24.71442053437049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.04263764267195</v>
+        <v>22.59176477223278</v>
       </c>
       <c r="C4">
-        <v>12.21717012243974</v>
+        <v>16.58208239599186</v>
       </c>
       <c r="D4">
-        <v>9.089421995030946</v>
+        <v>4.431334457632955</v>
       </c>
       <c r="E4">
-        <v>7.229441706773483</v>
+        <v>9.097490884445119</v>
       </c>
       <c r="F4">
-        <v>56.84239693102759</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>33.69050636604917</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.431184971672499</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.177706775103061</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>13.5114002374482</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>12.26347725271627</v>
+      </c>
+      <c r="O4">
+        <v>24.14907762404471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.60379432418083</v>
+        <v>22.10025653634152</v>
       </c>
       <c r="C5">
-        <v>11.94688697761682</v>
+        <v>16.21923651957959</v>
       </c>
       <c r="D5">
-        <v>8.969367531517221</v>
+        <v>4.390454230708407</v>
       </c>
       <c r="E5">
-        <v>7.175180957412626</v>
+        <v>8.999278432345974</v>
       </c>
       <c r="F5">
-        <v>55.81857522756738</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>33.31893408371926</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.400885881917932</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.06647068511678</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>13.21409383471583</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>12.34043048401895</v>
+      </c>
+      <c r="O5">
+        <v>23.92286371632742</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.53025730606276</v>
+        <v>22.01777870954775</v>
       </c>
       <c r="C6">
-        <v>11.90161566962954</v>
+        <v>16.15833481171454</v>
       </c>
       <c r="D6">
-        <v>8.949375858423679</v>
+        <v>4.383652430040798</v>
       </c>
       <c r="E6">
-        <v>7.16619594068996</v>
+        <v>8.982971152530272</v>
       </c>
       <c r="F6">
-        <v>55.64760064761349</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>33.25745949465621</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.39591478256007</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.047992498667094</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>13.16425925505499</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>12.35324738759314</v>
+      </c>
+      <c r="O6">
+        <v>23.8855559890801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.03676378363717</v>
+        <v>22.585193904018</v>
       </c>
       <c r="C7">
-        <v>12.21355103667558</v>
+        <v>16.57723250787761</v>
       </c>
       <c r="D7">
-        <v>9.087806703403297</v>
+        <v>4.430784083280567</v>
       </c>
       <c r="E7">
-        <v>7.22870824587762</v>
+        <v>9.096166376158587</v>
       </c>
       <c r="F7">
-        <v>56.82865442882633</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>33.68548035885034</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.430772314305544</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.176207163307559</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>13.50742182400628</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>12.26451250797026</v>
+      </c>
+      <c r="O7">
+        <v>24.14600980574557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.17725115733958</v>
+        <v>24.96463864895089</v>
       </c>
       <c r="C8">
-        <v>13.53510429062581</v>
+        <v>18.3320957563628</v>
       </c>
       <c r="D8">
-        <v>9.690481877080751</v>
+        <v>4.636423592810106</v>
       </c>
       <c r="E8">
-        <v>7.508313267156659</v>
+        <v>9.595032877774504</v>
       </c>
       <c r="F8">
-        <v>61.89910235213917</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>35.60476576166764</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.593405930925428</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.740414781728127</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>14.9555124823392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>11.8781090453995</v>
+      </c>
+      <c r="O8">
+        <v>25.33165577119998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.06228971588981</v>
+        <v>29.19590068950092</v>
       </c>
       <c r="C9">
-        <v>15.95044823095412</v>
+        <v>21.44814845781362</v>
       </c>
       <c r="D9">
-        <v>10.84588897959534</v>
+        <v>5.028361423503201</v>
       </c>
       <c r="E9">
-        <v>8.072171330996536</v>
+        <v>10.56523796096514</v>
       </c>
       <c r="F9">
-        <v>71.35351925011322</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>39.46292616449955</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.944939620825373</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.852473788653034</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>17.57600285641589</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>11.13374644588689</v>
+      </c>
+      <c r="O9">
+        <v>27.78223381266286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.75882177782164</v>
+        <v>32.05396655372816</v>
       </c>
       <c r="C10">
-        <v>17.64245981397113</v>
+        <v>23.55150117888205</v>
       </c>
       <c r="D10">
-        <v>11.68504068000677</v>
+        <v>5.307428377948204</v>
       </c>
       <c r="E10">
-        <v>8.499311646873828</v>
+        <v>11.2699253173599</v>
       </c>
       <c r="F10">
-        <v>78.04836385301796</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>42.34944060692393</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.224242158256502</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.87747487691794</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>19.38924736527636</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>10.58947925755521</v>
+      </c>
+      <c r="O10">
+        <v>29.65869203179805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.96053864812265</v>
+        <v>33.30357531841591</v>
       </c>
       <c r="C11">
-        <v>18.40131984778891</v>
+        <v>24.47110804197553</v>
       </c>
       <c r="D11">
-        <v>12.06705163725439</v>
+        <v>5.432172212011213</v>
       </c>
       <c r="E11">
-        <v>8.697615240411839</v>
+        <v>11.58853629588427</v>
       </c>
       <c r="F11">
-        <v>81.05680043485316</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>43.67478347526582</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.356228058647369</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.33275492624655</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>20.19583562559525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>10.34105227177378</v>
+      </c>
+      <c r="O11">
+        <v>30.52994194363782</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.41298402209894</v>
+        <v>33.76987137550248</v>
       </c>
       <c r="C12">
-        <v>18.68786448854463</v>
+        <v>24.81428483358253</v>
       </c>
       <c r="D12">
-        <v>12.21203044303743</v>
+        <v>5.479078450927283</v>
       </c>
       <c r="E12">
-        <v>8.773423102166218</v>
+        <v>11.70892055964171</v>
       </c>
       <c r="F12">
-        <v>82.192717331693</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>44.17865130388306</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.40695640382813</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.50391134519263</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>20.49927092485971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>10.24672831491709</v>
+      </c>
+      <c r="O12">
+        <v>30.86258584916558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.31564057730944</v>
+        <v>33.6697468833177</v>
       </c>
       <c r="C13">
-        <v>18.62617484903958</v>
+        <v>24.74059545547215</v>
       </c>
       <c r="D13">
-        <v>12.18078710738762</v>
+        <v>5.46899124792755</v>
       </c>
       <c r="E13">
-        <v>8.757062050959243</v>
+        <v>11.68300499962499</v>
       </c>
       <c r="F13">
-        <v>81.94818636508674</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>44.07004078464534</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.395997130771434</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.46709921230212</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>20.43399837920114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>10.2670560097279</v>
+      </c>
+      <c r="O13">
+        <v>30.790820139864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.99780778369233</v>
+        <v>33.34207387178709</v>
       </c>
       <c r="C14">
-        <v>18.42490564210024</v>
+        <v>24.4994409619985</v>
       </c>
       <c r="D14">
-        <v>12.078970830691</v>
+        <v>5.436037917005227</v>
       </c>
       <c r="E14">
-        <v>8.703836723385388</v>
+        <v>11.598445549351</v>
       </c>
       <c r="F14">
-        <v>81.15030580611069</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>43.71619532529255</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.360386252578269</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.3468589301543</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>20.22083550920523</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>10.33329798933102</v>
+      </c>
+      <c r="O14">
+        <v>30.5572528604322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.8028172974678</v>
+        <v>33.14047728355955</v>
       </c>
       <c r="C15">
-        <v>18.30154049055375</v>
+        <v>24.35107748665209</v>
       </c>
       <c r="D15">
-        <v>12.01665673105643</v>
+        <v>5.415809573530067</v>
       </c>
       <c r="E15">
-        <v>8.671332610124828</v>
+        <v>11.54661658989772</v>
       </c>
       <c r="F15">
-        <v>80.66121903264916</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>43.49972290806147</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.338672341217074</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.27305677998735</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>20.09002711664693</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>10.37383645365932</v>
+      </c>
+      <c r="O15">
+        <v>30.4145474348529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.67986297395948</v>
+        <v>31.97131468561338</v>
       </c>
       <c r="C16">
-        <v>17.5927080407748</v>
+        <v>23.49067802765122</v>
       </c>
       <c r="D16">
-        <v>11.66010305017417</v>
+        <v>5.299230296082719</v>
       </c>
       <c r="E16">
-        <v>8.486443486279256</v>
+        <v>11.24906461158212</v>
       </c>
       <c r="F16">
-        <v>77.85116951073159</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>42.26308924976992</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.215718887147834</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.84752693887028</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>19.33621788636887</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>10.60568694113321</v>
+      </c>
+      <c r="O16">
+        <v>29.60212247389546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.98520484682208</v>
+        <v>31.24137060033891</v>
       </c>
       <c r="C17">
-        <v>17.1555638639525</v>
+        <v>22.95351566565792</v>
       </c>
       <c r="D17">
-        <v>11.44161457049364</v>
+        <v>5.227135257101754</v>
       </c>
       <c r="E17">
-        <v>8.374130521337282</v>
+        <v>11.06602714201819</v>
       </c>
       <c r="F17">
-        <v>76.11906703722894</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>41.50771245692317</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.141578286829975</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.58387833518977</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>18.86950787248333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>10.74761747954798</v>
+      </c>
+      <c r="O17">
+        <v>29.10834756818073</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.58323910942834</v>
+        <v>30.81674450058219</v>
       </c>
       <c r="C18">
-        <v>16.90305699282962</v>
+        <v>22.64103124816911</v>
       </c>
       <c r="D18">
-        <v>11.31595084277322</v>
+        <v>5.185460944699559</v>
       </c>
       <c r="E18">
-        <v>8.309896615577305</v>
+        <v>10.96056235908538</v>
       </c>
       <c r="F18">
-        <v>75.11916690193209</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>41.07437154424646</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.099395684388436</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.43117608512476</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>18.59930545615279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>10.82918194953965</v>
+      </c>
+      <c r="O18">
+        <v>28.82598564521502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.44669901180267</v>
+        <v>30.67214186078478</v>
       </c>
       <c r="C19">
-        <v>16.81735812311229</v>
+        <v>22.5346159918667</v>
       </c>
       <c r="D19">
-        <v>11.27339687162921</v>
+        <v>5.171315722250456</v>
       </c>
       <c r="E19">
-        <v>8.28820728071293</v>
+        <v>10.92482177139044</v>
       </c>
       <c r="F19">
-        <v>74.77993979288104</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>40.92783940937973</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.085191546965322</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.37928281245021</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>18.50749971410873</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>10.85678993744342</v>
+      </c>
+      <c r="O19">
+        <v>28.73066098243048</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.05939613594126</v>
+        <v>31.3195667881595</v>
       </c>
       <c r="C20">
-        <v>17.20220480386238</v>
+        <v>23.01106010694341</v>
       </c>
       <c r="D20">
-        <v>11.46487074250892</v>
+        <v>5.234831465095039</v>
       </c>
       <c r="E20">
-        <v>8.386047710814848</v>
+        <v>11.08553107444728</v>
       </c>
       <c r="F20">
-        <v>76.30381619397789</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>41.58800524798625</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.149422706139099</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.6120515298127</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>18.9193683081803</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>10.73251689290906</v>
+      </c>
+      <c r="O20">
+        <v>29.16073951479525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.09122528197567</v>
+        <v>33.43850359155324</v>
       </c>
       <c r="C21">
-        <v>18.48403880652418</v>
+        <v>24.57040863455811</v>
       </c>
       <c r="D21">
-        <v>12.10886542791823</v>
+        <v>5.44572618472951</v>
       </c>
       <c r="E21">
-        <v>8.719449570721697</v>
+        <v>11.62328970055442</v>
       </c>
       <c r="F21">
-        <v>81.38473366225787</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>43.82007183156244</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.370825359384192</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.38220729440769</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>20.28349531651241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>10.31384900660286</v>
+      </c>
+      <c r="O21">
+        <v>30.62578148491313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.4044930122878</v>
+        <v>34.78331805454627</v>
       </c>
       <c r="C22">
-        <v>19.31748794806875</v>
+        <v>25.56021418178534</v>
       </c>
       <c r="D22">
-        <v>12.53180905964201</v>
+        <v>5.581624332069653</v>
       </c>
       <c r="E22">
-        <v>8.941610169907669</v>
+        <v>11.97321755876473</v>
       </c>
       <c r="F22">
-        <v>84.68747051771985</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>45.29065828048184</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.519912112108851</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.87848122339497</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>21.16375381995168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>10.03869680658614</v>
+      </c>
+      <c r="O22">
+        <v>31.59928092118849</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.70453956109468</v>
+        <v>34.06909455891495</v>
       </c>
       <c r="C23">
-        <v>18.87276445128085</v>
+        <v>25.03451165204515</v>
       </c>
       <c r="D23">
-        <v>12.30577298965888</v>
+        <v>5.509272663739073</v>
       </c>
       <c r="E23">
-        <v>8.822590820825397</v>
+        <v>11.78658237678795</v>
       </c>
       <c r="F23">
-        <v>82.9255567360907</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>44.5045870504944</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.439924340416987</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.61412803247524</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>20.69473240954834</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>10.18573732907769</v>
+      </c>
+      <c r="O23">
+        <v>31.0781560864249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.025862415156</v>
+        <v>31.28422980366095</v>
       </c>
       <c r="C24">
-        <v>17.1811221854037</v>
+        <v>22.9850556949448</v>
       </c>
       <c r="D24">
-        <v>11.45435680846595</v>
+        <v>5.231352711935771</v>
       </c>
       <c r="E24">
-        <v>8.380658911900142</v>
+        <v>11.07671407648387</v>
       </c>
       <c r="F24">
-        <v>76.22030398875988</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>41.55170197934971</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.145874870820565</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.59931796359493</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>18.89683232070972</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>10.73934396221542</v>
+      </c>
+      <c r="O24">
+        <v>29.13704840688439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.04170022594555</v>
+        <v>28.09641356413945</v>
       </c>
       <c r="C25">
-        <v>15.31358385327666</v>
+        <v>20.63880572946181</v>
       </c>
       <c r="D25">
-        <v>10.5356484572185</v>
+        <v>4.923774272074346</v>
       </c>
       <c r="E25">
-        <v>7.917686504712869</v>
+        <v>10.30404794762233</v>
       </c>
       <c r="F25">
-        <v>68.8445506898974</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>38.4100101381021</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.84624535703694</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.542781984869755</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>16.88853527365967</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>11.33422305271366</v>
+      </c>
+      <c r="O25">
+        <v>27.10608436622765</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_21/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.57945711921841</v>
+        <v>12.70104993970638</v>
       </c>
       <c r="C2">
-        <v>18.78515609301811</v>
+        <v>6.91629797797393</v>
       </c>
       <c r="D2">
-        <v>4.691464227989033</v>
+        <v>4.727533264230828</v>
       </c>
       <c r="E2">
-        <v>9.729821197809107</v>
+        <v>14.50410927589712</v>
       </c>
       <c r="F2">
-        <v>36.13159530840749</v>
+        <v>19.07222179912356</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.639643237029302</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.28058834331411</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.56341358541312</v>
       </c>
       <c r="N2">
-        <v>11.77450491348014</v>
+        <v>12.09387278253783</v>
       </c>
       <c r="O2">
-        <v>25.66152137929198</v>
+        <v>15.29232054240429</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.76299388110931</v>
+        <v>11.87595232375574</v>
       </c>
       <c r="C3">
-        <v>17.44619285043418</v>
+        <v>6.630598491154169</v>
       </c>
       <c r="D3">
-        <v>4.531034308793364</v>
+        <v>4.588314564208576</v>
       </c>
       <c r="E3">
-        <v>9.338397387908497</v>
+        <v>13.63613708244768</v>
       </c>
       <c r="F3">
-        <v>34.61107194432518</v>
+        <v>18.64207369167715</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.507991585155056</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.65050666888581</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.62266861723147</v>
       </c>
       <c r="N3">
-        <v>12.07613621735471</v>
+        <v>12.30237025225929</v>
       </c>
       <c r="O3">
-        <v>24.71442053437049</v>
+        <v>15.18167722528514</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.59176477223278</v>
+        <v>11.34019406508201</v>
       </c>
       <c r="C4">
-        <v>16.58208239599186</v>
+        <v>6.448519228933268</v>
       </c>
       <c r="D4">
-        <v>4.431334457632955</v>
+        <v>4.500034881594226</v>
       </c>
       <c r="E4">
-        <v>9.097490884445119</v>
+        <v>13.08706077707085</v>
       </c>
       <c r="F4">
-        <v>33.69050636604917</v>
+        <v>18.39017060505961</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.431184971672499</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.24402259130106</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.01426473846025</v>
       </c>
       <c r="N4">
-        <v>12.26347725271627</v>
+        <v>12.43313956789836</v>
       </c>
       <c r="O4">
-        <v>24.14907762404471</v>
+        <v>15.12640761331313</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.10025653634152</v>
+        <v>11.1145164835934</v>
       </c>
       <c r="C5">
-        <v>16.21923651957959</v>
+        <v>6.372702789665759</v>
       </c>
       <c r="D5">
-        <v>4.390454230708407</v>
+        <v>4.463386739797212</v>
       </c>
       <c r="E5">
-        <v>8.999278432345974</v>
+        <v>12.85945504884025</v>
       </c>
       <c r="F5">
-        <v>33.31893408371926</v>
+        <v>18.29065315187702</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.400885881917932</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.07349771485404</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.75856727023574</v>
       </c>
       <c r="N5">
-        <v>12.34043048401895</v>
+        <v>12.48714465839271</v>
       </c>
       <c r="O5">
-        <v>23.92286371632742</v>
+        <v>15.10697811650468</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.01777870954775</v>
+        <v>11.07659830780348</v>
       </c>
       <c r="C6">
-        <v>16.15833481171454</v>
+        <v>6.360017662636667</v>
       </c>
       <c r="D6">
-        <v>4.383652430040798</v>
+        <v>4.457261610144807</v>
       </c>
       <c r="E6">
-        <v>8.982971152530272</v>
+        <v>12.8214356261511</v>
       </c>
       <c r="F6">
-        <v>33.25745949465621</v>
+        <v>18.27431940553875</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.39591478256007</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.04488934310653</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.71563914766672</v>
       </c>
       <c r="N6">
-        <v>12.35324738759314</v>
+        <v>12.49615605401505</v>
       </c>
       <c r="O6">
-        <v>23.8855559890801</v>
+        <v>15.10393590102032</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.585193904018</v>
+        <v>11.33718029163966</v>
       </c>
       <c r="C7">
-        <v>16.57723250787761</v>
+        <v>6.447503210128957</v>
       </c>
       <c r="D7">
-        <v>4.430784083280567</v>
+        <v>4.499543316606959</v>
       </c>
       <c r="E7">
-        <v>9.096166376158587</v>
+        <v>13.08400649641354</v>
       </c>
       <c r="F7">
-        <v>33.68548035885034</v>
+        <v>18.38881570548961</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.430772314305544</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.24174250837922</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.01084779366446</v>
       </c>
       <c r="N7">
-        <v>12.26451250797026</v>
+        <v>12.43386497157982</v>
       </c>
       <c r="O7">
-        <v>24.14600980574557</v>
+        <v>15.12613318087588</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.96463864895089</v>
+        <v>12.42258969287543</v>
       </c>
       <c r="C8">
-        <v>18.3320957563628</v>
+        <v>6.819201996068265</v>
       </c>
       <c r="D8">
-        <v>4.636423592810106</v>
+        <v>4.680128886521535</v>
       </c>
       <c r="E8">
-        <v>9.595032877774504</v>
+        <v>14.20828933994157</v>
       </c>
       <c r="F8">
-        <v>35.60476576166764</v>
+        <v>18.92141430874968</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.593405930925428</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.06743280114988</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>14.24541384199325</v>
       </c>
       <c r="N8">
-        <v>11.8781090453995</v>
+        <v>12.16520640151552</v>
       </c>
       <c r="O8">
-        <v>25.33165577119998</v>
+        <v>15.25148865579024</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.19590068950092</v>
+        <v>14.3211469244385</v>
       </c>
       <c r="C9">
-        <v>21.44814845781362</v>
+        <v>7.493235482189063</v>
       </c>
       <c r="D9">
-        <v>5.028361423503201</v>
+        <v>5.01085991190275</v>
       </c>
       <c r="E9">
-        <v>10.56523796096514</v>
+        <v>16.36765972458719</v>
       </c>
       <c r="F9">
-        <v>39.46292616449955</v>
+        <v>20.05951179213636</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.944939620825373</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.52950215133285</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.4239267529852</v>
       </c>
       <c r="N9">
-        <v>11.13374644588689</v>
+        <v>11.65905741440377</v>
       </c>
       <c r="O9">
-        <v>27.78223381266286</v>
+        <v>15.60159556617698</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.05396655372816</v>
+        <v>15.57802040284782</v>
       </c>
       <c r="C10">
-        <v>23.55150117888205</v>
+        <v>7.952867783762861</v>
       </c>
       <c r="D10">
-        <v>5.307428377948204</v>
+        <v>5.238187357899296</v>
       </c>
       <c r="E10">
-        <v>11.2699253173599</v>
+        <v>17.97457650820077</v>
       </c>
       <c r="F10">
-        <v>42.34944060692393</v>
+        <v>20.94828326154834</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.224242158256502</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.50683812205331</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>17.87979228646761</v>
       </c>
       <c r="N10">
-        <v>10.58947925755521</v>
+        <v>11.29811826086798</v>
       </c>
       <c r="O10">
-        <v>29.65869203179805</v>
+        <v>15.92713464622464</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.30357531841591</v>
+        <v>16.1203869566997</v>
       </c>
       <c r="C11">
-        <v>24.47110804197553</v>
+        <v>8.15394017119193</v>
       </c>
       <c r="D11">
-        <v>5.432172212011213</v>
+        <v>5.337960510915601</v>
       </c>
       <c r="E11">
-        <v>11.58853629588427</v>
+        <v>18.6755917855887</v>
       </c>
       <c r="F11">
-        <v>43.67478347526582</v>
+        <v>21.36309001242583</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.356228058647369</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.93041544809935</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>18.51152213322843</v>
       </c>
       <c r="N11">
-        <v>10.34105227177378</v>
+        <v>11.1358939850522</v>
       </c>
       <c r="O11">
-        <v>30.52994194363782</v>
+        <v>16.0909544721005</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.76987137550248</v>
+        <v>16.32158880060235</v>
       </c>
       <c r="C12">
-        <v>24.81428483358253</v>
+        <v>8.228911531244245</v>
       </c>
       <c r="D12">
-        <v>5.479078450927283</v>
+        <v>5.375201471195778</v>
       </c>
       <c r="E12">
-        <v>11.70892055964171</v>
+        <v>18.93685013788524</v>
       </c>
       <c r="F12">
-        <v>44.17865130388306</v>
+        <v>21.521603161184</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.40695640382813</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.0878002118388</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>18.74642571182991</v>
       </c>
       <c r="N12">
-        <v>10.24672831491709</v>
+        <v>11.07471229389073</v>
       </c>
       <c r="O12">
-        <v>30.86258584916558</v>
+        <v>16.15531548541117</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.6697468833177</v>
+        <v>16.2784415513143</v>
       </c>
       <c r="C13">
-        <v>24.74059545547215</v>
+        <v>8.212817378596228</v>
       </c>
       <c r="D13">
-        <v>5.46899124792755</v>
+        <v>5.367205281079112</v>
       </c>
       <c r="E13">
-        <v>11.68300499962499</v>
+        <v>18.88076844256859</v>
       </c>
       <c r="F13">
-        <v>44.07004078464534</v>
+        <v>21.48740180836533</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.395997130771434</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.05403847207136</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>18.69602584136411</v>
       </c>
       <c r="N13">
-        <v>10.2670560097279</v>
+        <v>11.08787835068526</v>
       </c>
       <c r="O13">
-        <v>30.790820139864</v>
+        <v>16.14134976907445</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.34207387178709</v>
+        <v>16.13702346450577</v>
       </c>
       <c r="C14">
-        <v>24.4994409619985</v>
+        <v>8.160131646341915</v>
       </c>
       <c r="D14">
-        <v>5.436037917005227</v>
+        <v>5.341035282084198</v>
       </c>
       <c r="E14">
-        <v>11.598445549351</v>
+        <v>18.69716919005845</v>
       </c>
       <c r="F14">
-        <v>43.71619532529255</v>
+        <v>21.37610262840579</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.360386252578269</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.94342393867644</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>18.53093389546093</v>
       </c>
       <c r="N14">
-        <v>10.33329798933102</v>
+        <v>11.13085574020683</v>
       </c>
       <c r="O14">
-        <v>30.5572528604322</v>
+        <v>16.09620252448596</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.14047728355955</v>
+        <v>16.04985778293138</v>
       </c>
       <c r="C15">
-        <v>24.35107748665209</v>
+        <v>8.127707273168969</v>
       </c>
       <c r="D15">
-        <v>5.415809573530067</v>
+        <v>5.324934466520681</v>
       </c>
       <c r="E15">
-        <v>11.54661658989772</v>
+        <v>18.58416571925131</v>
       </c>
       <c r="F15">
-        <v>43.49972290806147</v>
+        <v>21.3081134386446</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.338672341217074</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.87527707960882</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>18.42925020679341</v>
       </c>
       <c r="N15">
-        <v>10.37383645365932</v>
+        <v>11.15721202934264</v>
       </c>
       <c r="O15">
-        <v>30.4145474348529</v>
+        <v>16.06885326853891</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.97131468561338</v>
+        <v>15.54198788597474</v>
       </c>
       <c r="C16">
-        <v>23.49067802765122</v>
+        <v>7.939564273796375</v>
       </c>
       <c r="D16">
-        <v>5.299230296082719</v>
+        <v>5.231592156701836</v>
       </c>
       <c r="E16">
-        <v>11.24906461158212</v>
+        <v>17.92816940709377</v>
       </c>
       <c r="F16">
-        <v>42.26308924976992</v>
+        <v>20.92137935574355</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.215718887147834</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.47873389212227</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>17.83789868659428</v>
       </c>
       <c r="N16">
-        <v>10.60568694113321</v>
+        <v>11.30875675945672</v>
       </c>
       <c r="O16">
-        <v>29.60212247389546</v>
+        <v>15.91675074859106</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.24137060033891</v>
+        <v>15.22292986920164</v>
       </c>
       <c r="C17">
-        <v>22.95351566565792</v>
+        <v>7.822076947057409</v>
       </c>
       <c r="D17">
-        <v>5.227135257101754</v>
+        <v>5.173384298135987</v>
       </c>
       <c r="E17">
-        <v>11.06602714201819</v>
+        <v>17.51813331534845</v>
       </c>
       <c r="F17">
-        <v>41.50771245692317</v>
+        <v>20.68676402542988</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.141578286829975</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.23008732305188</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>17.46734951262735</v>
       </c>
       <c r="N17">
-        <v>10.74761747954798</v>
+        <v>11.40220528466201</v>
       </c>
       <c r="O17">
-        <v>29.10834756818073</v>
+        <v>15.82751676941687</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.81674450058219</v>
+        <v>15.03664671555977</v>
       </c>
       <c r="C18">
-        <v>22.64103124816911</v>
+        <v>7.753747435258897</v>
       </c>
       <c r="D18">
-        <v>5.185460944699559</v>
+        <v>5.139563041346235</v>
       </c>
       <c r="E18">
-        <v>10.96056235908538</v>
+        <v>17.27946233915103</v>
       </c>
       <c r="F18">
-        <v>41.07437154424646</v>
+        <v>20.55281191165523</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.099395684388436</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.085093149418</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>17.25133894834891</v>
       </c>
       <c r="N18">
-        <v>10.82918194953965</v>
+        <v>11.45614187295447</v>
       </c>
       <c r="O18">
-        <v>28.82598564521502</v>
+        <v>15.77766887710763</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.67214186078478</v>
+        <v>14.97309744655091</v>
       </c>
       <c r="C19">
-        <v>22.5346159918667</v>
+        <v>7.730483386501256</v>
       </c>
       <c r="D19">
-        <v>5.171315722250456</v>
+        <v>5.128053643428159</v>
       </c>
       <c r="E19">
-        <v>10.92482177139044</v>
+        <v>17.19816338130442</v>
       </c>
       <c r="F19">
-        <v>40.92783940937973</v>
+        <v>20.50763089133572</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.085191546965322</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.03566056958642</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>17.17770461128803</v>
       </c>
       <c r="N19">
-        <v>10.85678993744342</v>
+        <v>11.47443707326785</v>
       </c>
       <c r="O19">
-        <v>28.73066098243048</v>
+        <v>15.76104290887079</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.3195667881595</v>
+        <v>15.2571804425139</v>
       </c>
       <c r="C20">
-        <v>23.01106010694341</v>
+        <v>7.834661846625615</v>
       </c>
       <c r="D20">
-        <v>5.234831465095039</v>
+        <v>5.179616117060371</v>
       </c>
       <c r="E20">
-        <v>11.08553107444728</v>
+        <v>17.56207439232497</v>
       </c>
       <c r="F20">
-        <v>41.58800524798625</v>
+        <v>20.71163708579805</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.149422706139099</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.25676098783098</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>17.50709270798302</v>
       </c>
       <c r="N20">
-        <v>10.73251689290906</v>
+        <v>11.39223836666854</v>
       </c>
       <c r="O20">
-        <v>29.16073951479525</v>
+        <v>15.8368625230252</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.43850359155324</v>
+        <v>16.17867446299892</v>
       </c>
       <c r="C21">
-        <v>24.57040863455811</v>
+        <v>8.17563859813667</v>
       </c>
       <c r="D21">
-        <v>5.44572618472951</v>
+        <v>5.3487368564482</v>
       </c>
       <c r="E21">
-        <v>11.62328970055442</v>
+        <v>18.75120982027641</v>
       </c>
       <c r="F21">
-        <v>43.82007183156244</v>
+        <v>21.40875551102102</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.370825359384192</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.97599583215099</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>18.5795419841978</v>
       </c>
       <c r="N21">
-        <v>10.31384900660286</v>
+        <v>11.11822575977251</v>
       </c>
       <c r="O21">
-        <v>30.62578148491313</v>
+        <v>16.10939975015776</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.78331805454627</v>
+        <v>16.75657995889707</v>
       </c>
       <c r="C22">
-        <v>25.56021418178534</v>
+        <v>8.391660600822009</v>
       </c>
       <c r="D22">
-        <v>5.581624332069653</v>
+        <v>5.456107222266855</v>
       </c>
       <c r="E22">
-        <v>11.97321755876473</v>
+        <v>19.50395145189171</v>
       </c>
       <c r="F22">
-        <v>45.29065828048184</v>
+        <v>21.87269771851222</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.519912112108851</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.42849348659949</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>19.2553159919126</v>
       </c>
       <c r="N22">
-        <v>10.03869680658614</v>
+        <v>10.94057737430681</v>
       </c>
       <c r="O22">
-        <v>31.59928092118849</v>
+        <v>16.3011030016831</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.06909455891495</v>
+        <v>16.45035240077619</v>
       </c>
       <c r="C23">
-        <v>25.03451165204515</v>
+        <v>8.276994484645344</v>
       </c>
       <c r="D23">
-        <v>5.509272663739073</v>
+        <v>5.399096021068693</v>
       </c>
       <c r="E23">
-        <v>11.78658237678795</v>
+        <v>19.10439488444209</v>
       </c>
       <c r="F23">
-        <v>44.5045870504944</v>
+        <v>21.6243428744651</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.439924340416987</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.18858971267518</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>18.89691594692088</v>
       </c>
       <c r="N23">
-        <v>10.18573732907769</v>
+        <v>11.03527219513543</v>
       </c>
       <c r="O23">
-        <v>31.0781560864249</v>
+        <v>16.1975243750429</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.28422980366095</v>
+        <v>15.24170464649603</v>
       </c>
       <c r="C24">
-        <v>22.9850556949448</v>
+        <v>7.828974655616459</v>
       </c>
       <c r="D24">
-        <v>5.231352711935771</v>
+        <v>5.176799821662572</v>
       </c>
       <c r="E24">
-        <v>11.07671407648387</v>
+        <v>17.54221778387001</v>
       </c>
       <c r="F24">
-        <v>41.55170197934971</v>
+        <v>20.70038906839319</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.145874870820565</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.2447081909166</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>17.48913408730567</v>
       </c>
       <c r="N24">
-        <v>10.73934396221542</v>
+        <v>11.39674374808268</v>
       </c>
       <c r="O24">
-        <v>29.13704840688439</v>
+        <v>15.83263278410285</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.09641356413945</v>
+        <v>13.83194312801361</v>
       </c>
       <c r="C25">
-        <v>20.63880572946181</v>
+        <v>7.31701489567928</v>
       </c>
       <c r="D25">
-        <v>4.923774272074346</v>
+        <v>4.924047641747337</v>
       </c>
       <c r="E25">
-        <v>10.30404794762233</v>
+        <v>15.74864460386124</v>
       </c>
       <c r="F25">
-        <v>38.4100101381021</v>
+        <v>19.74205572939363</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.84624535703694</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.15094654093268</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15.86024721234658</v>
       </c>
       <c r="N25">
-        <v>11.33422305271366</v>
+        <v>11.79393731420815</v>
       </c>
       <c r="O25">
-        <v>27.10608436622765</v>
+        <v>15.49520434793645</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_21/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.70104993970638</v>
+        <v>9.07207546586166</v>
       </c>
       <c r="C2">
-        <v>6.91629797797393</v>
+        <v>5.459457105089298</v>
       </c>
       <c r="D2">
-        <v>4.727533264230828</v>
+        <v>5.030686024327975</v>
       </c>
       <c r="E2">
-        <v>14.50410927589712</v>
+        <v>12.60419834982519</v>
       </c>
       <c r="F2">
-        <v>19.07222179912356</v>
+        <v>24.92074885364291</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.28058834331411</v>
+        <v>8.318395326212755</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.56341358541312</v>
+        <v>13.55570814820479</v>
       </c>
       <c r="N2">
-        <v>12.09387278253783</v>
+        <v>18.73536573970178</v>
       </c>
       <c r="O2">
-        <v>15.29232054240429</v>
+        <v>22.30085422391774</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.87595232375574</v>
+        <v>8.793952934427979</v>
       </c>
       <c r="C3">
-        <v>6.630598491154169</v>
+        <v>5.337939148169157</v>
       </c>
       <c r="D3">
-        <v>4.588314564208576</v>
+        <v>4.980291331590418</v>
       </c>
       <c r="E3">
-        <v>13.63613708244768</v>
+        <v>12.38848904863236</v>
       </c>
       <c r="F3">
-        <v>18.64207369167715</v>
+        <v>24.92046979955405</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,19 +483,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.65050666888581</v>
+        <v>8.131818729482857</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.62266861723147</v>
+        <v>13.38679700773052</v>
       </c>
       <c r="N3">
-        <v>12.30237025225929</v>
+        <v>18.79653686691411</v>
       </c>
       <c r="O3">
-        <v>15.18167722528514</v>
+        <v>22.34993385733469</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.34019406508201</v>
+        <v>8.620428974443081</v>
       </c>
       <c r="C4">
-        <v>6.448519228933268</v>
+        <v>5.261101922172143</v>
       </c>
       <c r="D4">
-        <v>4.500034881594226</v>
+        <v>4.948568849471397</v>
       </c>
       <c r="E4">
-        <v>13.08706077707085</v>
+        <v>12.25847303576059</v>
       </c>
       <c r="F4">
-        <v>18.39017060505961</v>
+        <v>24.92681840777126</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,19 +524,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.24402259130106</v>
+        <v>8.016568215339843</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.01426473846025</v>
+        <v>13.28538495281228</v>
       </c>
       <c r="N4">
-        <v>12.43313956789836</v>
+        <v>18.8358296404732</v>
       </c>
       <c r="O4">
-        <v>15.12640761331313</v>
+        <v>22.38488491961896</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.1145164835934</v>
+        <v>8.549139841634814</v>
       </c>
       <c r="C5">
-        <v>6.372702789665759</v>
+        <v>5.229256138853356</v>
       </c>
       <c r="D5">
-        <v>4.463386739797212</v>
+        <v>4.935451079583654</v>
       </c>
       <c r="E5">
-        <v>12.85945504884025</v>
+        <v>12.20617840493596</v>
       </c>
       <c r="F5">
-        <v>18.29065315187702</v>
+        <v>24.93104492068234</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.07349771485404</v>
+        <v>7.969497817851952</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.75856727023574</v>
+        <v>13.24468607267562</v>
       </c>
       <c r="N5">
-        <v>12.48714465839271</v>
+        <v>18.85227894661533</v>
       </c>
       <c r="O5">
-        <v>15.10697811650468</v>
+        <v>22.40033627026948</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.07659830780348</v>
+        <v>8.537271056031736</v>
       </c>
       <c r="C6">
-        <v>6.360017662636667</v>
+        <v>5.223936691972641</v>
       </c>
       <c r="D6">
-        <v>4.457261610144807</v>
+        <v>4.933261535356899</v>
       </c>
       <c r="E6">
-        <v>12.8214356261511</v>
+        <v>12.19753869556962</v>
       </c>
       <c r="F6">
-        <v>18.27431940553875</v>
+        <v>24.93184572232512</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,19 +606,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.04488934310653</v>
+        <v>7.961677542968792</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.71563914766672</v>
+        <v>13.23796735225356</v>
       </c>
       <c r="N6">
-        <v>12.49615605401505</v>
+        <v>18.85503678404612</v>
       </c>
       <c r="O6">
-        <v>15.10393590102032</v>
+        <v>22.4029748684064</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.33718029163966</v>
+        <v>8.619469719911105</v>
       </c>
       <c r="C7">
-        <v>6.447503210128957</v>
+        <v>5.260674566191156</v>
       </c>
       <c r="D7">
-        <v>4.499543316606959</v>
+        <v>4.948392703019005</v>
       </c>
       <c r="E7">
-        <v>13.08400649641354</v>
+        <v>12.25776488587958</v>
       </c>
       <c r="F7">
-        <v>18.38881570548961</v>
+        <v>24.92686877105337</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,19 +647,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.24174250837922</v>
+        <v>8.015933739199028</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.01084779366446</v>
+        <v>13.28483346955454</v>
       </c>
       <c r="N7">
-        <v>12.43386497157982</v>
+        <v>18.83604970973238</v>
       </c>
       <c r="O7">
-        <v>15.12613318087588</v>
+        <v>22.38508841223688</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.42258969287543</v>
+        <v>8.976817951664962</v>
       </c>
       <c r="C8">
-        <v>6.819201996068265</v>
+        <v>5.418034233351058</v>
       </c>
       <c r="D8">
-        <v>4.680128886521535</v>
+        <v>5.013475085774155</v>
       </c>
       <c r="E8">
-        <v>14.20828933994157</v>
+        <v>12.52936370980556</v>
       </c>
       <c r="F8">
-        <v>18.92141430874968</v>
+        <v>24.91929967815921</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.06743280114988</v>
+        <v>8.254247970695754</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.24541384199325</v>
+        <v>13.49701995160021</v>
       </c>
       <c r="N8">
-        <v>12.16520640151552</v>
+        <v>18.75609854685852</v>
       </c>
       <c r="O8">
-        <v>15.25148865579024</v>
+        <v>22.31677588811801</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.3211469244385</v>
+        <v>9.651025540820896</v>
       </c>
       <c r="C9">
-        <v>7.493235482189063</v>
+        <v>5.707926457291405</v>
       </c>
       <c r="D9">
-        <v>5.01085991190275</v>
+        <v>5.134677680861465</v>
       </c>
       <c r="E9">
-        <v>16.36765972458719</v>
+        <v>13.07784817311722</v>
       </c>
       <c r="F9">
-        <v>20.05951179213636</v>
+        <v>24.95614923766896</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.52950215133285</v>
+        <v>8.713189693693817</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.4239267529852</v>
+        <v>13.92916458955616</v>
       </c>
       <c r="N9">
-        <v>11.65905741440377</v>
+        <v>18.61300869739646</v>
       </c>
       <c r="O9">
-        <v>15.60159556617698</v>
+        <v>22.22113129400537</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.57802040284782</v>
+        <v>10.12450650574261</v>
       </c>
       <c r="C10">
-        <v>7.952867783762861</v>
+        <v>5.908240153230784</v>
       </c>
       <c r="D10">
-        <v>5.238187357899296</v>
+        <v>5.219504811947827</v>
       </c>
       <c r="E10">
-        <v>17.97457650820077</v>
+        <v>13.48596245894423</v>
       </c>
       <c r="F10">
-        <v>20.94828326154834</v>
+        <v>25.01461590410904</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.50683812205331</v>
+        <v>9.041585856328888</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.87979228646761</v>
+        <v>14.25345350989057</v>
       </c>
       <c r="N10">
-        <v>11.29811826086798</v>
+        <v>18.51614322706785</v>
       </c>
       <c r="O10">
-        <v>15.92713464622464</v>
+        <v>22.17434832336479</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.1203869566997</v>
+        <v>10.33413131093121</v>
       </c>
       <c r="C11">
-        <v>8.15394017119193</v>
+        <v>5.996378294839179</v>
       </c>
       <c r="D11">
-        <v>5.337960510915601</v>
+        <v>5.25711664657133</v>
       </c>
       <c r="E11">
-        <v>18.6755917855887</v>
+        <v>13.67180371275984</v>
       </c>
       <c r="F11">
-        <v>21.36309001242583</v>
+        <v>25.04798163833378</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.93041544809935</v>
+        <v>9.188365516575523</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.51152213322843</v>
+        <v>14.40181944346933</v>
       </c>
       <c r="N11">
-        <v>11.1358939850522</v>
+        <v>18.47385246489195</v>
       </c>
       <c r="O11">
-        <v>16.0909544721005</v>
+        <v>22.15818765175469</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.32158880060235</v>
+        <v>10.41260754905408</v>
       </c>
       <c r="C12">
-        <v>8.228911531244245</v>
+        <v>6.029306675219007</v>
       </c>
       <c r="D12">
-        <v>5.375201471195778</v>
+        <v>5.271213807230007</v>
       </c>
       <c r="E12">
-        <v>18.93685013788524</v>
+        <v>13.74212883153385</v>
       </c>
       <c r="F12">
-        <v>21.521603161184</v>
+        <v>25.06158364639455</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.0878002118388</v>
+        <v>9.243518024647193</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.74642571182991</v>
+        <v>14.45807078135601</v>
       </c>
       <c r="N12">
-        <v>11.07471229389073</v>
+        <v>18.45809177892035</v>
       </c>
       <c r="O12">
-        <v>16.15531548541117</v>
+        <v>22.15280573585068</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.2784415513143</v>
+        <v>10.39574761277598</v>
       </c>
       <c r="C13">
-        <v>8.212817378596228</v>
+        <v>6.02223514278726</v>
       </c>
       <c r="D13">
-        <v>5.367205281079112</v>
+        <v>5.268184289387827</v>
       </c>
       <c r="E13">
-        <v>18.88076844256859</v>
+        <v>13.7269864135889</v>
       </c>
       <c r="F13">
-        <v>21.48740180836533</v>
+        <v>25.05861130896162</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.05403847207136</v>
+        <v>9.231659885792627</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.69602584136411</v>
+        <v>14.44595384402791</v>
       </c>
       <c r="N13">
-        <v>11.08787835068526</v>
+        <v>18.46147485047707</v>
       </c>
       <c r="O13">
-        <v>16.14134976907445</v>
+        <v>22.15393199634923</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.13702346450577</v>
+        <v>10.34060612129976</v>
       </c>
       <c r="C14">
-        <v>8.160131646341915</v>
+        <v>5.999096402968362</v>
       </c>
       <c r="D14">
-        <v>5.341035282084198</v>
+        <v>5.25827937627044</v>
       </c>
       <c r="E14">
-        <v>18.69716919005845</v>
+        <v>13.67759080802451</v>
       </c>
       <c r="F14">
-        <v>21.37610262840579</v>
+        <v>25.04908134088673</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.94342393867644</v>
+        <v>9.192911858170346</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.53093389546093</v>
+        <v>14.40644620549688</v>
       </c>
       <c r="N14">
-        <v>11.13085574020683</v>
+        <v>18.47255074172407</v>
       </c>
       <c r="O14">
-        <v>16.09620252448596</v>
+        <v>22.15773008537397</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.04985778293138</v>
+        <v>10.30671052323028</v>
       </c>
       <c r="C15">
-        <v>8.127707273168969</v>
+        <v>5.984864445866256</v>
       </c>
       <c r="D15">
-        <v>5.324934466520681</v>
+        <v>5.252193214453348</v>
       </c>
       <c r="E15">
-        <v>18.58416571925131</v>
+        <v>13.64732599594875</v>
       </c>
       <c r="F15">
-        <v>21.3081134386446</v>
+        <v>25.04336970398213</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.87527707960882</v>
+        <v>9.169120052767104</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.42925020679341</v>
+        <v>14.38225397980386</v>
       </c>
       <c r="N15">
-        <v>11.15721202934264</v>
+        <v>18.47936807678274</v>
       </c>
       <c r="O15">
-        <v>16.06885326853891</v>
+        <v>22.16015264049465</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.54198788597474</v>
+        <v>10.11068442850401</v>
       </c>
       <c r="C16">
-        <v>7.939564273796375</v>
+        <v>5.902418442252207</v>
       </c>
       <c r="D16">
-        <v>5.231592156701836</v>
+        <v>5.217026692101895</v>
       </c>
       <c r="E16">
-        <v>17.92816940709377</v>
+        <v>13.47381452064807</v>
       </c>
       <c r="F16">
-        <v>20.92137935574355</v>
+        <v>25.01257107683991</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.47873389212227</v>
+        <v>9.03193620148881</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.83789868659428</v>
+        <v>14.24376988968277</v>
       </c>
       <c r="N16">
-        <v>11.30875675945672</v>
+        <v>18.51894262182155</v>
       </c>
       <c r="O16">
-        <v>15.91675074859106</v>
+        <v>22.17550763552607</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.22292986920164</v>
+        <v>9.988896360876478</v>
       </c>
       <c r="C17">
-        <v>7.822076947057409</v>
+        <v>5.851062311722032</v>
       </c>
       <c r="D17">
-        <v>5.173384298135987</v>
+        <v>5.195199316796296</v>
       </c>
       <c r="E17">
-        <v>17.51813331534845</v>
+        <v>13.36736407085958</v>
       </c>
       <c r="F17">
-        <v>20.68676402542988</v>
+        <v>24.99540673929869</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.23008732305188</v>
+        <v>8.947069981301196</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.46734951262735</v>
+        <v>14.15899276365411</v>
       </c>
       <c r="N17">
-        <v>11.40220528466201</v>
+        <v>18.54367380973269</v>
       </c>
       <c r="O17">
-        <v>15.82751676941687</v>
+        <v>22.18624014414038</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.03664671555977</v>
+        <v>9.918308523074671</v>
       </c>
       <c r="C18">
-        <v>7.753747435258897</v>
+        <v>5.821243604732286</v>
       </c>
       <c r="D18">
-        <v>5.139563041346235</v>
+        <v>5.182553181078505</v>
       </c>
       <c r="E18">
-        <v>17.27946233915103</v>
+        <v>13.30615866513676</v>
       </c>
       <c r="F18">
-        <v>20.55281191165523</v>
+        <v>24.98617183988144</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.085093149418</v>
+        <v>8.898014581437332</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.25133894834891</v>
+        <v>14.11031389705276</v>
       </c>
       <c r="N18">
-        <v>11.45614187295447</v>
+        <v>18.55806556482413</v>
       </c>
       <c r="O18">
-        <v>15.77766887710763</v>
+        <v>22.19289516244541</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.97309744655091</v>
+        <v>9.894318619669633</v>
       </c>
       <c r="C19">
-        <v>7.730483386501256</v>
+        <v>5.81109999183481</v>
       </c>
       <c r="D19">
-        <v>5.128053643428159</v>
+        <v>5.178255844751438</v>
       </c>
       <c r="E19">
-        <v>17.19816338130442</v>
+        <v>13.2854417190357</v>
       </c>
       <c r="F19">
-        <v>20.50763089133572</v>
+        <v>24.98315473653653</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.03566056958642</v>
+        <v>8.881365325745373</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.17770461128803</v>
+        <v>14.09384790722108</v>
       </c>
       <c r="N19">
-        <v>11.47443707326785</v>
+        <v>18.56296708908605</v>
       </c>
       <c r="O19">
-        <v>15.76104290887079</v>
+        <v>22.19523116825381</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.2571804425139</v>
+        <v>10.00191721818537</v>
       </c>
       <c r="C20">
-        <v>7.834661846625615</v>
+        <v>5.856558377772313</v>
       </c>
       <c r="D20">
-        <v>5.179616117060371</v>
+        <v>5.197532397380421</v>
       </c>
       <c r="E20">
-        <v>17.56207439232497</v>
+        <v>13.37869417740265</v>
       </c>
       <c r="F20">
-        <v>20.71163708579805</v>
+        <v>24.99716796734013</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.25676098783098</v>
+        <v>8.956129650392867</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.50709270798302</v>
+        <v>14.16800926310409</v>
       </c>
       <c r="N20">
-        <v>11.39223836666854</v>
+        <v>18.54102385405698</v>
       </c>
       <c r="O20">
-        <v>15.8368625230252</v>
+        <v>22.18504775798563</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.17867446299892</v>
+        <v>10.35682761232696</v>
       </c>
       <c r="C21">
-        <v>8.17563859813667</v>
+        <v>6.005905098423753</v>
       </c>
       <c r="D21">
-        <v>5.3487368564482</v>
+        <v>5.261192682288145</v>
       </c>
       <c r="E21">
-        <v>18.75120982027641</v>
+        <v>13.69210141368768</v>
       </c>
       <c r="F21">
-        <v>21.40875551102102</v>
+        <v>25.0518543314005</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.97599583215099</v>
+        <v>9.204305172023561</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.5795419841978</v>
+        <v>14.41804911964118</v>
       </c>
       <c r="N21">
-        <v>11.11822575977251</v>
+        <v>18.46929060223738</v>
       </c>
       <c r="O21">
-        <v>16.10939975015776</v>
+        <v>22.15659446208823</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.75657995889707</v>
+        <v>10.58348270643638</v>
       </c>
       <c r="C22">
-        <v>8.391660600822009</v>
+        <v>6.100895299634944</v>
       </c>
       <c r="D22">
-        <v>5.456107222266855</v>
+        <v>5.301947245523516</v>
       </c>
       <c r="E22">
-        <v>19.50395145189171</v>
+        <v>13.89661285547321</v>
       </c>
       <c r="F22">
-        <v>21.87269771851222</v>
+        <v>25.09322848717158</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.42849348659949</v>
+        <v>9.363974696490091</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.2553159919126</v>
+        <v>14.58183928465978</v>
       </c>
       <c r="N22">
-        <v>10.94057737430681</v>
+        <v>18.42388821082192</v>
       </c>
       <c r="O22">
-        <v>16.3011030016831</v>
+        <v>22.14229934475539</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.45035240077619</v>
+        <v>10.46302035129787</v>
       </c>
       <c r="C23">
-        <v>8.276994484645344</v>
+        <v>6.050442311631231</v>
       </c>
       <c r="D23">
-        <v>5.399096021068693</v>
+        <v>5.280275324058471</v>
       </c>
       <c r="E23">
-        <v>19.10439488444209</v>
+        <v>13.78751470104583</v>
       </c>
       <c r="F23">
-        <v>21.6243428744651</v>
+        <v>25.07063322034969</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.18858971267518</v>
+        <v>9.279004340172301</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.89691594692088</v>
+        <v>14.49440440430095</v>
       </c>
       <c r="N23">
-        <v>11.03527219513543</v>
+        <v>18.44798533578674</v>
       </c>
       <c r="O23">
-        <v>16.1975243750429</v>
+        <v>22.14953502809094</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.24170464649603</v>
+        <v>9.996032259007631</v>
       </c>
       <c r="C24">
-        <v>7.828974655616459</v>
+        <v>5.854074518757951</v>
       </c>
       <c r="D24">
-        <v>5.176799821662572</v>
+        <v>5.196477914273249</v>
       </c>
       <c r="E24">
-        <v>17.54221778387001</v>
+        <v>13.37357184794317</v>
       </c>
       <c r="F24">
-        <v>20.70038906839319</v>
+        <v>24.99636974358046</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.2447081909166</v>
+        <v>8.95203459421834</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.48913408730567</v>
+        <v>14.16393271076902</v>
       </c>
       <c r="N24">
-        <v>11.39674374808268</v>
+        <v>18.54222135857185</v>
       </c>
       <c r="O24">
-        <v>15.83263278410285</v>
+        <v>22.18558532586309</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.83194312801361</v>
+        <v>9.472096331963353</v>
       </c>
       <c r="C25">
-        <v>7.31701489567928</v>
+        <v>5.631641703196576</v>
       </c>
       <c r="D25">
-        <v>4.924047641747337</v>
+        <v>5.102608798974005</v>
       </c>
       <c r="E25">
-        <v>15.74864460386124</v>
+        <v>12.92824092270028</v>
       </c>
       <c r="F25">
-        <v>19.74205572939363</v>
+        <v>24.94065427313301</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.15094654093268</v>
+        <v>8.590324488098165</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.86024721234658</v>
+        <v>13.81084798179818</v>
       </c>
       <c r="N25">
-        <v>11.79393731420815</v>
+        <v>18.6502611353412</v>
       </c>
       <c r="O25">
-        <v>15.49520434793645</v>
+        <v>22.24288933889782</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_21/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.07207546586166</v>
+        <v>12.70104993970642</v>
       </c>
       <c r="C2">
-        <v>5.459457105089298</v>
+        <v>6.916297977973921</v>
       </c>
       <c r="D2">
-        <v>5.030686024327975</v>
+        <v>4.727533264230812</v>
       </c>
       <c r="E2">
-        <v>12.60419834982519</v>
+        <v>14.50410927589715</v>
       </c>
       <c r="F2">
-        <v>24.92074885364291</v>
+        <v>19.07222179912347</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.318395326212755</v>
+        <v>11.28058834331414</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.55570814820479</v>
+        <v>14.5634135854131</v>
       </c>
       <c r="N2">
-        <v>18.73536573970178</v>
+        <v>12.0938727825378</v>
       </c>
       <c r="O2">
-        <v>22.30085422391774</v>
+        <v>15.29232054240423</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.793952934427979</v>
+        <v>11.8759523237557</v>
       </c>
       <c r="C3">
-        <v>5.337939148169157</v>
+        <v>6.630598491154288</v>
       </c>
       <c r="D3">
-        <v>4.980291331590418</v>
+        <v>4.588314564208519</v>
       </c>
       <c r="E3">
-        <v>12.38848904863236</v>
+        <v>13.63613708244769</v>
       </c>
       <c r="F3">
-        <v>24.92046979955405</v>
+        <v>18.64207369167719</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,19 +483,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.131818729482857</v>
+        <v>10.6505066688858</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.38679700773052</v>
+        <v>13.62266861723145</v>
       </c>
       <c r="N3">
-        <v>18.79653686691411</v>
+        <v>12.30237025225932</v>
       </c>
       <c r="O3">
-        <v>22.34993385733469</v>
+        <v>15.1816772252852</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.620428974443081</v>
+        <v>11.34019406508202</v>
       </c>
       <c r="C4">
-        <v>5.261101922172143</v>
+        <v>6.448519228933171</v>
       </c>
       <c r="D4">
-        <v>4.948568849471397</v>
+        <v>4.500034881594409</v>
       </c>
       <c r="E4">
-        <v>12.25847303576059</v>
+        <v>13.08706077707084</v>
       </c>
       <c r="F4">
-        <v>24.92681840777126</v>
+        <v>18.39017060505956</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,19 +524,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.016568215339843</v>
+        <v>10.24402259130102</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.28538495281228</v>
+        <v>13.01426473846025</v>
       </c>
       <c r="N4">
-        <v>18.8358296404732</v>
+        <v>12.43313956789836</v>
       </c>
       <c r="O4">
-        <v>22.38488491961896</v>
+        <v>15.12640761331317</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.549139841634814</v>
+        <v>11.11451648359348</v>
       </c>
       <c r="C5">
-        <v>5.229256138853356</v>
+        <v>6.372702789665693</v>
       </c>
       <c r="D5">
-        <v>4.935451079583654</v>
+        <v>4.463386739796977</v>
       </c>
       <c r="E5">
-        <v>12.20617840493596</v>
+        <v>12.85945504884026</v>
       </c>
       <c r="F5">
-        <v>24.93104492068234</v>
+        <v>18.29065315187684</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.969497817851952</v>
+        <v>10.07349771485415</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.24468607267562</v>
+        <v>12.75856727023582</v>
       </c>
       <c r="N5">
-        <v>18.85227894661533</v>
+        <v>12.48714465839261</v>
       </c>
       <c r="O5">
-        <v>22.40033627026948</v>
+        <v>15.10697811650443</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.537271056031736</v>
+        <v>11.0765983078035</v>
       </c>
       <c r="C6">
-        <v>5.223936691972641</v>
+        <v>6.360017662636756</v>
       </c>
       <c r="D6">
-        <v>4.933261535356899</v>
+        <v>4.457261610144639</v>
       </c>
       <c r="E6">
-        <v>12.19753869556962</v>
+        <v>12.82143562615113</v>
       </c>
       <c r="F6">
-        <v>24.93184572232512</v>
+        <v>18.27431940553873</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,19 +606,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.961677542968792</v>
+        <v>10.04488934310657</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.23796735225356</v>
+        <v>12.71563914766673</v>
       </c>
       <c r="N6">
-        <v>18.85503678404612</v>
+        <v>12.49615605401499</v>
       </c>
       <c r="O6">
-        <v>22.4029748684064</v>
+        <v>15.1039359010202</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.619469719911105</v>
+        <v>11.33718029163971</v>
       </c>
       <c r="C7">
-        <v>5.260674566191156</v>
+        <v>6.447503210128872</v>
       </c>
       <c r="D7">
-        <v>4.948392703019005</v>
+        <v>4.49954331660694</v>
       </c>
       <c r="E7">
-        <v>12.25776488587958</v>
+        <v>13.08400649641353</v>
       </c>
       <c r="F7">
-        <v>24.92686877105337</v>
+        <v>18.38881570548961</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,19 +647,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.015933739199028</v>
+        <v>10.24174250837926</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.28483346955454</v>
+        <v>13.01084779366449</v>
       </c>
       <c r="N7">
-        <v>18.83604970973238</v>
+        <v>12.43386497157985</v>
       </c>
       <c r="O7">
-        <v>22.38508841223688</v>
+        <v>15.12613318087589</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.976817951664962</v>
+        <v>12.42258969287546</v>
       </c>
       <c r="C8">
-        <v>5.418034233351058</v>
+        <v>6.81920199606835</v>
       </c>
       <c r="D8">
-        <v>5.013475085774155</v>
+        <v>4.680128886521643</v>
       </c>
       <c r="E8">
-        <v>12.52936370980556</v>
+        <v>14.20828933994161</v>
       </c>
       <c r="F8">
-        <v>24.91929967815921</v>
+        <v>18.92141430874954</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.254247970695754</v>
+        <v>11.06743280114994</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.49701995160021</v>
+        <v>14.2454138419933</v>
       </c>
       <c r="N8">
-        <v>18.75609854685852</v>
+        <v>12.16520640151549</v>
       </c>
       <c r="O8">
-        <v>22.31677588811801</v>
+        <v>15.25148865579014</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.651025540820896</v>
+        <v>14.32114692443849</v>
       </c>
       <c r="C9">
-        <v>5.707926457291405</v>
+        <v>7.493235482188967</v>
       </c>
       <c r="D9">
-        <v>5.134677680861465</v>
+        <v>5.010859911902817</v>
       </c>
       <c r="E9">
-        <v>13.07784817311722</v>
+        <v>16.36765972458722</v>
       </c>
       <c r="F9">
-        <v>24.95614923766896</v>
+        <v>20.05951179213635</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.713189693693817</v>
+        <v>12.52950215133285</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.92916458955616</v>
+        <v>16.4239267529852</v>
       </c>
       <c r="N9">
-        <v>18.61300869739646</v>
+        <v>11.6590574144038</v>
       </c>
       <c r="O9">
-        <v>22.22113129400537</v>
+        <v>15.60159556617697</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.12450650574261</v>
+        <v>15.57802040284787</v>
       </c>
       <c r="C10">
-        <v>5.908240153230784</v>
+        <v>7.952867783762972</v>
       </c>
       <c r="D10">
-        <v>5.219504811947827</v>
+        <v>5.238187357899284</v>
       </c>
       <c r="E10">
-        <v>13.48596245894423</v>
+        <v>17.97457650820071</v>
       </c>
       <c r="F10">
-        <v>25.01461590410904</v>
+        <v>20.94828326154822</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.041585856328888</v>
+        <v>13.50683812205338</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.25345350989057</v>
+        <v>17.87979228646761</v>
       </c>
       <c r="N10">
-        <v>18.51614322706785</v>
+        <v>11.29811826086784</v>
       </c>
       <c r="O10">
-        <v>22.17434832336479</v>
+        <v>15.92713464622451</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.33413131093121</v>
+        <v>16.12038695669975</v>
       </c>
       <c r="C11">
-        <v>5.996378294839179</v>
+        <v>8.153940171191831</v>
       </c>
       <c r="D11">
-        <v>5.25711664657133</v>
+        <v>5.337960510915696</v>
       </c>
       <c r="E11">
-        <v>13.67180371275984</v>
+        <v>18.67559178558874</v>
       </c>
       <c r="F11">
-        <v>25.04798163833378</v>
+        <v>21.36309001242569</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.188365516575523</v>
+        <v>13.93041544809938</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.40181944346933</v>
+        <v>18.51152213322848</v>
       </c>
       <c r="N11">
-        <v>18.47385246489195</v>
+        <v>11.13589398505213</v>
       </c>
       <c r="O11">
-        <v>22.15818765175469</v>
+        <v>16.09095447210041</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.41260754905408</v>
+        <v>16.3215888006023</v>
       </c>
       <c r="C12">
-        <v>6.029306675219007</v>
+        <v>8.228911531244412</v>
       </c>
       <c r="D12">
-        <v>5.271213807230007</v>
+        <v>5.375201471195743</v>
       </c>
       <c r="E12">
-        <v>13.74212883153385</v>
+        <v>18.93685013788518</v>
       </c>
       <c r="F12">
-        <v>25.06158364639455</v>
+        <v>21.52160316118403</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.243518024647193</v>
+        <v>14.08780021183877</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.45807078135601</v>
+        <v>18.74642571182987</v>
       </c>
       <c r="N12">
-        <v>18.45809177892035</v>
+        <v>11.07471229389076</v>
       </c>
       <c r="O12">
-        <v>22.15280573585068</v>
+        <v>16.15531548541118</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.39574761277598</v>
+        <v>16.27844155131429</v>
       </c>
       <c r="C13">
-        <v>6.02223514278726</v>
+        <v>8.212817378596384</v>
       </c>
       <c r="D13">
-        <v>5.268184289387827</v>
+        <v>5.367205281079196</v>
       </c>
       <c r="E13">
-        <v>13.7269864135889</v>
+        <v>18.88076844256861</v>
       </c>
       <c r="F13">
-        <v>25.05861130896162</v>
+        <v>21.48740180836534</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.231659885792627</v>
+        <v>14.05403847207139</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.44595384402791</v>
+        <v>18.69602584136415</v>
       </c>
       <c r="N13">
-        <v>18.46147485047707</v>
+        <v>11.08787835068527</v>
       </c>
       <c r="O13">
-        <v>22.15393199634923</v>
+        <v>16.14134976907445</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.34060612129976</v>
+        <v>16.13702346450583</v>
       </c>
       <c r="C14">
-        <v>5.999096402968362</v>
+        <v>8.160131646341915</v>
       </c>
       <c r="D14">
-        <v>5.25827937627044</v>
+        <v>5.341035282084407</v>
       </c>
       <c r="E14">
-        <v>13.67759080802451</v>
+        <v>18.69716919005844</v>
       </c>
       <c r="F14">
-        <v>25.04908134088673</v>
+        <v>21.3761026284057</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.192911858170346</v>
+        <v>13.94342393867647</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.40644620549688</v>
+        <v>18.53093389546094</v>
       </c>
       <c r="N14">
-        <v>18.47255074172407</v>
+        <v>11.13085574020683</v>
       </c>
       <c r="O14">
-        <v>22.15773008537397</v>
+        <v>16.09620252448594</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.30671052323028</v>
+        <v>16.0498577829313</v>
       </c>
       <c r="C15">
-        <v>5.984864445866256</v>
+        <v>8.127707273168856</v>
       </c>
       <c r="D15">
-        <v>5.252193214453348</v>
+        <v>5.324934466520758</v>
       </c>
       <c r="E15">
-        <v>13.64732599594875</v>
+        <v>18.58416571925135</v>
       </c>
       <c r="F15">
-        <v>25.04336970398213</v>
+        <v>21.30811343864468</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.169120052767104</v>
+        <v>13.8752770796087</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.38225397980386</v>
+        <v>18.42925020679337</v>
       </c>
       <c r="N15">
-        <v>18.47936807678274</v>
+        <v>11.15721202934268</v>
       </c>
       <c r="O15">
-        <v>22.16015264049465</v>
+        <v>16.06885326853904</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.11068442850401</v>
+        <v>15.54198788597473</v>
       </c>
       <c r="C16">
-        <v>5.902418442252207</v>
+        <v>7.939564273796301</v>
       </c>
       <c r="D16">
-        <v>5.217026692101895</v>
+        <v>5.231592156701835</v>
       </c>
       <c r="E16">
-        <v>13.47381452064807</v>
+        <v>17.92816940709382</v>
       </c>
       <c r="F16">
-        <v>25.01257107683991</v>
+        <v>20.92137935574359</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.03193620148881</v>
+        <v>13.47873389212224</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.24376988968277</v>
+        <v>17.8378986865943</v>
       </c>
       <c r="N16">
-        <v>18.51894262182155</v>
+        <v>11.30875675945669</v>
       </c>
       <c r="O16">
-        <v>22.17550763552607</v>
+        <v>15.91675074859108</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.988896360876478</v>
+        <v>15.22292986920163</v>
       </c>
       <c r="C17">
-        <v>5.851062311722032</v>
+        <v>7.822076947057409</v>
       </c>
       <c r="D17">
-        <v>5.195199316796296</v>
+        <v>5.173384298136128</v>
       </c>
       <c r="E17">
-        <v>13.36736407085958</v>
+        <v>17.51813331534845</v>
       </c>
       <c r="F17">
-        <v>24.99540673929869</v>
+        <v>20.68676402542989</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.947069981301196</v>
+        <v>13.23008732305187</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.15899276365411</v>
+        <v>17.46734951262733</v>
       </c>
       <c r="N17">
-        <v>18.54367380973269</v>
+        <v>11.40220528466205</v>
       </c>
       <c r="O17">
-        <v>22.18624014414038</v>
+        <v>15.82751676941692</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.918308523074671</v>
+        <v>15.03664671555978</v>
       </c>
       <c r="C18">
-        <v>5.821243604732286</v>
+        <v>7.753747435258871</v>
       </c>
       <c r="D18">
-        <v>5.182553181078505</v>
+        <v>5.139563041346037</v>
       </c>
       <c r="E18">
-        <v>13.30615866513676</v>
+        <v>17.27946233915098</v>
       </c>
       <c r="F18">
-        <v>24.98617183988144</v>
+        <v>20.55281191165537</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.898014581437332</v>
+        <v>13.08509314941799</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.11031389705276</v>
+        <v>17.25133894834887</v>
       </c>
       <c r="N18">
-        <v>18.55806556482413</v>
+        <v>11.45614187295464</v>
       </c>
       <c r="O18">
-        <v>22.19289516244541</v>
+        <v>15.77766887710774</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.894318619669633</v>
+        <v>14.97309744655088</v>
       </c>
       <c r="C19">
-        <v>5.81109999183481</v>
+        <v>7.730483386501431</v>
       </c>
       <c r="D19">
-        <v>5.178255844751438</v>
+        <v>5.128053643428197</v>
       </c>
       <c r="E19">
-        <v>13.2854417190357</v>
+        <v>17.1981633813044</v>
       </c>
       <c r="F19">
-        <v>24.98315473653653</v>
+        <v>20.5076308913357</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.881365325745373</v>
+        <v>13.03566056958647</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.09384790722108</v>
+        <v>17.17770461128804</v>
       </c>
       <c r="N19">
-        <v>18.56296708908605</v>
+        <v>11.47443707326782</v>
       </c>
       <c r="O19">
-        <v>22.19523116825381</v>
+        <v>15.76104290887077</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.00191721818537</v>
+        <v>15.2571804425139</v>
       </c>
       <c r="C20">
-        <v>5.856558377772313</v>
+        <v>7.834661846625641</v>
       </c>
       <c r="D20">
-        <v>5.197532397380421</v>
+        <v>5.179616117060274</v>
       </c>
       <c r="E20">
-        <v>13.37869417740265</v>
+        <v>17.56207439232494</v>
       </c>
       <c r="F20">
-        <v>24.99716796734013</v>
+        <v>20.71163708579807</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.956129650392867</v>
+        <v>13.25676098783098</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.16800926310409</v>
+        <v>17.50709270798301</v>
       </c>
       <c r="N20">
-        <v>18.54102385405698</v>
+        <v>11.39223836666854</v>
       </c>
       <c r="O20">
-        <v>22.18504775798563</v>
+        <v>15.83686252302519</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.35682761232696</v>
+        <v>16.17867446299899</v>
       </c>
       <c r="C21">
-        <v>6.005905098423753</v>
+        <v>8.175638598136658</v>
       </c>
       <c r="D21">
-        <v>5.261192682288145</v>
+        <v>5.348736856448135</v>
       </c>
       <c r="E21">
-        <v>13.69210141368768</v>
+        <v>18.75120982027646</v>
       </c>
       <c r="F21">
-        <v>25.0518543314005</v>
+        <v>21.408755511021</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.204305172023561</v>
+        <v>13.97599583215103</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.41804911964118</v>
+        <v>18.57954198419782</v>
       </c>
       <c r="N21">
-        <v>18.46929060223738</v>
+        <v>11.11822575977248</v>
       </c>
       <c r="O21">
-        <v>22.15659446208823</v>
+        <v>16.10939975015773</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.58348270643638</v>
+        <v>16.75657995889712</v>
       </c>
       <c r="C22">
-        <v>6.100895299634944</v>
+        <v>8.391660600822217</v>
       </c>
       <c r="D22">
-        <v>5.301947245523516</v>
+        <v>5.456107222266827</v>
       </c>
       <c r="E22">
-        <v>13.89661285547321</v>
+        <v>19.50395145189167</v>
       </c>
       <c r="F22">
-        <v>25.09322848717158</v>
+        <v>21.87269771851222</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.363974696490091</v>
+        <v>14.42849348659955</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.58183928465978</v>
+        <v>19.25531599191262</v>
       </c>
       <c r="N22">
-        <v>18.42388821082192</v>
+        <v>10.94057737430681</v>
       </c>
       <c r="O22">
-        <v>22.14229934475539</v>
+        <v>16.30110300168303</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.46302035129787</v>
+        <v>16.45035240077621</v>
       </c>
       <c r="C23">
-        <v>6.050442311631231</v>
+        <v>8.276994484645261</v>
       </c>
       <c r="D23">
-        <v>5.280275324058471</v>
+        <v>5.399096021068638</v>
       </c>
       <c r="E23">
-        <v>13.78751470104583</v>
+        <v>19.10439488444208</v>
       </c>
       <c r="F23">
-        <v>25.07063322034969</v>
+        <v>21.62434287446503</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.279004340172301</v>
+        <v>14.18858971267524</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.49440440430095</v>
+        <v>18.89691594692091</v>
       </c>
       <c r="N23">
-        <v>18.44798533578674</v>
+        <v>11.03527219513536</v>
       </c>
       <c r="O23">
-        <v>22.14953502809094</v>
+        <v>16.19752437504281</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.996032259007631</v>
+        <v>15.24170464649602</v>
       </c>
       <c r="C24">
-        <v>5.854074518757951</v>
+        <v>7.828974655616546</v>
       </c>
       <c r="D24">
-        <v>5.196477914273249</v>
+        <v>5.176799821662403</v>
       </c>
       <c r="E24">
-        <v>13.37357184794317</v>
+        <v>17.54221778386999</v>
       </c>
       <c r="F24">
-        <v>24.99636974358046</v>
+        <v>20.70038906839319</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.95203459421834</v>
+        <v>13.24470819091663</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.16393271076902</v>
+        <v>17.48913408730567</v>
       </c>
       <c r="N24">
-        <v>18.54222135857185</v>
+        <v>11.39674374808268</v>
       </c>
       <c r="O24">
-        <v>22.18558532586309</v>
+        <v>15.83263278410285</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.472096331963353</v>
+        <v>13.8319431280136</v>
       </c>
       <c r="C25">
-        <v>5.631641703196576</v>
+        <v>7.317014895679395</v>
       </c>
       <c r="D25">
-        <v>5.102608798974005</v>
+        <v>4.924047641747206</v>
       </c>
       <c r="E25">
-        <v>12.92824092270028</v>
+        <v>15.74864460386119</v>
       </c>
       <c r="F25">
-        <v>24.94065427313301</v>
+        <v>19.74205572939367</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.590324488098165</v>
+        <v>12.15094654093272</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.81084798179818</v>
+        <v>15.86024721234657</v>
       </c>
       <c r="N25">
-        <v>18.6502611353412</v>
+        <v>11.79393731420818</v>
       </c>
       <c r="O25">
-        <v>22.24288933889782</v>
+        <v>15.49520434793646</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,989 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.70104993970642</v>
+        <v>20.32194893151573</v>
       </c>
       <c r="C2">
-        <v>6.916297977973921</v>
+        <v>15.88253528142689</v>
       </c>
       <c r="D2">
-        <v>4.727533264230812</v>
+        <v>7.950143048612909</v>
       </c>
       <c r="E2">
-        <v>14.50410927589715</v>
+        <v>12.3648293916299</v>
       </c>
       <c r="F2">
-        <v>19.07222179912347</v>
+        <v>24.6278002157867</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2.016947764429236</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.924696206973243</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>11.28058834331414</v>
+        <v>13.45592552449628</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.46596232091923</v>
       </c>
       <c r="M2">
-        <v>14.5634135854131</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.0938727825378</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>15.29232054240423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.19544573418554</v>
+      </c>
+      <c r="Q2">
+        <v>16.70726045659879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.8759523237557</v>
+        <v>18.97519401811632</v>
       </c>
       <c r="C3">
-        <v>6.630598491154288</v>
+        <v>14.86561083878118</v>
       </c>
       <c r="D3">
-        <v>4.588314564208519</v>
+        <v>7.60216070915022</v>
       </c>
       <c r="E3">
-        <v>13.63613708244769</v>
+        <v>11.81810170593469</v>
       </c>
       <c r="F3">
-        <v>18.64207369167719</v>
+        <v>23.87610803939693</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1.782201515000627</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.769671352446391</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>10.6505066688858</v>
+        <v>13.49870333418684</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.250635039782432</v>
       </c>
       <c r="M3">
-        <v>13.62266861723145</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.30237025225932</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>15.1816772252852</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.24797946968691</v>
+      </c>
+      <c r="Q3">
+        <v>16.37898605556484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.34019406508202</v>
+        <v>18.09503106939723</v>
       </c>
       <c r="C4">
-        <v>6.448519228933171</v>
+        <v>14.20837009018014</v>
       </c>
       <c r="D4">
-        <v>4.500034881594409</v>
+        <v>7.381315648854772</v>
       </c>
       <c r="E4">
-        <v>13.08706077707084</v>
+        <v>11.46933059431639</v>
       </c>
       <c r="F4">
-        <v>18.39017060505956</v>
+        <v>23.41039722508173</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1.632687293936085</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.671804875413463</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>10.24402259130102</v>
+        <v>13.52993842151959</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.114379832354964</v>
       </c>
       <c r="M4">
-        <v>13.01426473846025</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>12.43313956789836</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>15.12640761331317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.28309272961214</v>
+      </c>
+      <c r="Q4">
+        <v>16.18062665422042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.11451648359348</v>
+        <v>17.71744644177967</v>
       </c>
       <c r="C5">
-        <v>6.372702789665693</v>
+        <v>13.94180069054864</v>
       </c>
       <c r="D5">
-        <v>4.463386739796977</v>
+        <v>7.291241903807805</v>
       </c>
       <c r="E5">
-        <v>12.85945504884026</v>
+        <v>11.32460715316322</v>
       </c>
       <c r="F5">
-        <v>18.29065315187684</v>
+        <v>23.21247640538386</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1.570164562352272</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.631821017379981</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>10.07349771485415</v>
+        <v>13.53874836497435</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.057604916660385</v>
       </c>
       <c r="M5">
-        <v>12.75856727023582</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12.48714465839261</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>15.10697811650443</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.29914729048827</v>
+      </c>
+      <c r="Q5">
+        <v>16.09488453804435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.0765983078035</v>
+        <v>17.64725819896604</v>
       </c>
       <c r="C6">
-        <v>6.360017662636756</v>
+        <v>13.90867684647039</v>
       </c>
       <c r="D6">
-        <v>4.457261610144639</v>
+        <v>7.278189293431486</v>
       </c>
       <c r="E6">
-        <v>12.82143562615113</v>
+        <v>11.30109915098527</v>
       </c>
       <c r="F6">
-        <v>18.27431940553873</v>
+        <v>23.17060428990223</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1.561727694410086</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.626060346774258</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>10.04488934310657</v>
+        <v>13.53402895679982</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.047789807621426</v>
       </c>
       <c r="M6">
-        <v>12.71563914766673</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>12.49615605401499</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>15.1039359010202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.30313895743617</v>
+      </c>
+      <c r="Q6">
+        <v>16.07363653748826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.33718029163971</v>
+        <v>18.07220186130152</v>
       </c>
       <c r="C7">
-        <v>6.447503210128872</v>
+        <v>14.23584019464522</v>
       </c>
       <c r="D7">
-        <v>4.49954331660694</v>
+        <v>7.385498954920953</v>
       </c>
       <c r="E7">
-        <v>13.08400649641353</v>
+        <v>11.46931036467482</v>
       </c>
       <c r="F7">
-        <v>18.38881570548961</v>
+        <v>23.38350122069586</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1.631121162136923</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.673399117369073</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>10.24174250837926</v>
+        <v>13.51297056053699</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.112731941289425</v>
       </c>
       <c r="M7">
-        <v>13.01084779366449</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>12.43386497157985</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>15.12613318087589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.28688689761975</v>
+      </c>
+      <c r="Q7">
+        <v>16.16029913713267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.42258969287546</v>
+        <v>19.84689742489736</v>
       </c>
       <c r="C8">
-        <v>6.81920199606835</v>
+        <v>15.57663458380654</v>
       </c>
       <c r="D8">
-        <v>4.680128886521643</v>
+        <v>7.838462991727968</v>
       </c>
       <c r="E8">
-        <v>14.20828933994161</v>
+        <v>12.18152275848568</v>
       </c>
       <c r="F8">
-        <v>18.92141430874954</v>
+        <v>24.33876260647165</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1.93619968437782</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.874022429778021</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>11.06743280114994</v>
+        <v>13.44702627106845</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.391466686881411</v>
       </c>
       <c r="M8">
-        <v>14.2454138419933</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.16520640151549</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>15.25148865579014</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.21801910963051</v>
+      </c>
+      <c r="Q8">
+        <v>16.56870649261598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.32114692443849</v>
+        <v>22.93554315484159</v>
       </c>
       <c r="C9">
-        <v>7.493235482188967</v>
+        <v>17.89620295038431</v>
       </c>
       <c r="D9">
-        <v>5.010859911902817</v>
+        <v>8.657462765169852</v>
       </c>
       <c r="E9">
-        <v>16.36765972458722</v>
+        <v>13.46716752638725</v>
       </c>
       <c r="F9">
-        <v>20.05951179213635</v>
+        <v>26.21056153065649</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2.493904095761962</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.244294667288156</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>12.52950215133285</v>
+        <v>13.39013369373572</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.906030700018515</v>
       </c>
       <c r="M9">
-        <v>16.4239267529852</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.6590574144038</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>15.60159556617697</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.09946631211661</v>
+      </c>
+      <c r="Q9">
+        <v>17.42552576988584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.57802040284787</v>
+        <v>24.90193445973201</v>
       </c>
       <c r="C10">
-        <v>7.952867783762972</v>
+        <v>19.39236007310202</v>
       </c>
       <c r="D10">
-        <v>5.238187357899284</v>
+        <v>9.129278361517521</v>
       </c>
       <c r="E10">
-        <v>17.97457650820071</v>
+        <v>14.11790785438597</v>
       </c>
       <c r="F10">
-        <v>20.94828326154822</v>
+        <v>27.35703404447389</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2.863374556639089</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.50017259350354</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>13.50683812205338</v>
+        <v>13.31935197691539</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.153070031679603</v>
       </c>
       <c r="M10">
-        <v>17.87979228646761</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.29811826086784</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>15.92713464622451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.04573857736178</v>
+      </c>
+      <c r="Q10">
+        <v>17.96620233330191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.12038695669975</v>
+        <v>25.34944218262011</v>
       </c>
       <c r="C11">
-        <v>8.153940171191831</v>
+        <v>19.54229528783369</v>
       </c>
       <c r="D11">
-        <v>5.337960510915696</v>
+        <v>8.557453059015261</v>
       </c>
       <c r="E11">
-        <v>18.67559178558874</v>
+        <v>12.51196890234621</v>
       </c>
       <c r="F11">
-        <v>21.36309001242569</v>
+        <v>26.27563811054959</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3.529245034810064</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.572726491768442</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>13.93041544809938</v>
+        <v>12.83810309020647</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.376094512399136</v>
       </c>
       <c r="M11">
-        <v>18.51152213322848</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>11.13589398505213</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>16.09095447210041</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.17818060988891</v>
+      </c>
+      <c r="Q11">
+        <v>17.4017826407559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.3215888006023</v>
+        <v>25.34701294560308</v>
       </c>
       <c r="C12">
-        <v>8.228911531244412</v>
+        <v>19.32453491935057</v>
       </c>
       <c r="D12">
-        <v>5.375201471195743</v>
+        <v>7.969030068723609</v>
       </c>
       <c r="E12">
-        <v>18.93685013788518</v>
+        <v>11.0738350952764</v>
       </c>
       <c r="F12">
-        <v>21.52160316118403</v>
+        <v>25.13396213849473</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.606316937171188</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.580160517301195</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>14.08780021183877</v>
+        <v>12.47033117614989</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.751027510709837</v>
       </c>
       <c r="M12">
-        <v>18.74642571182987</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.07471229389076</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>16.15531548541118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.30296271283833</v>
+      </c>
+      <c r="Q12">
+        <v>16.82507909472785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.27844155131429</v>
+        <v>24.97856198469991</v>
       </c>
       <c r="C13">
-        <v>8.212817378596384</v>
+        <v>18.84049725736741</v>
       </c>
       <c r="D13">
-        <v>5.367205281079196</v>
+        <v>7.327473405074571</v>
       </c>
       <c r="E13">
-        <v>18.88076844256861</v>
+        <v>9.682106339074668</v>
       </c>
       <c r="F13">
-        <v>21.48740180836534</v>
+        <v>23.82230223906306</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.8122838637261</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.541046298161332</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>14.05403847207139</v>
+        <v>12.1422276813778</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.221626812553918</v>
       </c>
       <c r="M13">
-        <v>18.69602584136415</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11.08787835068527</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>16.14134976907445</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.43142023619132</v>
+      </c>
+      <c r="Q13">
+        <v>16.16824500909294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.13702346450583</v>
+        <v>24.54575871878883</v>
       </c>
       <c r="C14">
-        <v>8.160131646341915</v>
+        <v>18.38158570210597</v>
       </c>
       <c r="D14">
-        <v>5.341035282084407</v>
+        <v>6.852491755294407</v>
       </c>
       <c r="E14">
-        <v>18.69716919005844</v>
+        <v>8.761604974791293</v>
       </c>
       <c r="F14">
-        <v>21.3761026284057</v>
+        <v>22.81284036145529</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.702593047483645</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.493628359262006</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>13.94342393867647</v>
+        <v>11.92921320151887</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.924439461659254</v>
       </c>
       <c r="M14">
-        <v>18.53093389546094</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>11.13085574020683</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>16.09620252448594</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.52402745992191</v>
+      </c>
+      <c r="Q14">
+        <v>15.66490682965104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.0498577829313</v>
+        <v>24.35484455100912</v>
       </c>
       <c r="C15">
-        <v>8.127707273168856</v>
+        <v>18.22031502165775</v>
       </c>
       <c r="D15">
-        <v>5.324934466520758</v>
+        <v>6.726183011947697</v>
       </c>
       <c r="E15">
-        <v>18.58416571925135</v>
+        <v>8.541813199854529</v>
       </c>
       <c r="F15">
-        <v>21.30811343864468</v>
+        <v>22.52424173153681</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>6.905272377082191</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.472879271217093</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>13.8752770796087</v>
+        <v>11.88123413325796</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.861601531100975</v>
       </c>
       <c r="M15">
-        <v>18.42925020679337</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>11.15721202934268</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>16.06885326853904</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.54796197253693</v>
+      </c>
+      <c r="Q15">
+        <v>15.52030228935032</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.54198788597473</v>
+        <v>23.59047214902562</v>
       </c>
       <c r="C16">
-        <v>7.939564273796301</v>
+        <v>17.68338829731947</v>
       </c>
       <c r="D16">
-        <v>5.231592156701835</v>
+        <v>6.627393700863722</v>
       </c>
       <c r="E16">
-        <v>17.92816940709382</v>
+        <v>8.482698889668974</v>
       </c>
       <c r="F16">
-        <v>20.92137935574359</v>
+        <v>22.2370441473962</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6.627460234843614</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.373800418314699</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>13.47873389212224</v>
+        <v>11.97061195525001</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.848083609826197</v>
       </c>
       <c r="M16">
-        <v>17.8378986865943</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.30875675945669</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>15.91675074859108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.53555855518794</v>
+      </c>
+      <c r="Q16">
+        <v>15.39178740783879</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.22292986920163</v>
+        <v>23.23233933976441</v>
       </c>
       <c r="C17">
-        <v>7.822076947057409</v>
+        <v>17.5209051487779</v>
       </c>
       <c r="D17">
-        <v>5.173384298136128</v>
+        <v>6.810758232107839</v>
       </c>
       <c r="E17">
-        <v>17.51813331534845</v>
+        <v>8.917990408671297</v>
       </c>
       <c r="F17">
-        <v>20.68676402542989</v>
+        <v>22.56705544455676</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>5.890625792951436</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.32287868318795</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>13.23008732305187</v>
+        <v>12.15045472794497</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.981676807337719</v>
       </c>
       <c r="M17">
-        <v>17.46734951262733</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.40220528466205</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>15.82751676941692</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.47868023246728</v>
+      </c>
+      <c r="Q17">
+        <v>15.56609345509794</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.03664671555978</v>
+        <v>23.20793167219603</v>
       </c>
       <c r="C18">
-        <v>7.753747435258871</v>
+        <v>17.65024326249157</v>
       </c>
       <c r="D18">
-        <v>5.139563041346037</v>
+        <v>7.261453789254303</v>
       </c>
       <c r="E18">
-        <v>17.27946233915098</v>
+        <v>9.919435336588172</v>
       </c>
       <c r="F18">
-        <v>20.55281191165537</v>
+        <v>23.47932792309216</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.725786842589199</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.306363006607119</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>13.08509314941799</v>
+        <v>12.44168726172004</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.33455462700404</v>
       </c>
       <c r="M18">
-        <v>17.25133894834887</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.45614187295464</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>15.77766887710774</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.37550371002281</v>
+      </c>
+      <c r="Q18">
+        <v>16.03061811663837</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.97309744655088</v>
+        <v>23.42823523921535</v>
       </c>
       <c r="C19">
-        <v>7.730483386501431</v>
+        <v>18.04943733994859</v>
       </c>
       <c r="D19">
-        <v>5.128053643428197</v>
+        <v>7.904958709648444</v>
       </c>
       <c r="E19">
-        <v>17.1981633813044</v>
+        <v>11.39016230615663</v>
       </c>
       <c r="F19">
-        <v>20.5076308913357</v>
+        <v>24.74427419362789</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3.487580228355923</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.327464668621694</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>13.03566056958647</v>
+        <v>12.77791887025788</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.928708135042934</v>
       </c>
       <c r="M19">
-        <v>17.17770461128804</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.47443707326782</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>15.76104290887077</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.25658408430339</v>
+      </c>
+      <c r="Q19">
+        <v>16.65795850716408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.2571804425139</v>
+        <v>24.35731654339741</v>
       </c>
       <c r="C20">
-        <v>7.834661846625641</v>
+        <v>19.08130245604544</v>
       </c>
       <c r="D20">
-        <v>5.179616117060274</v>
+        <v>9.017432686480683</v>
       </c>
       <c r="E20">
-        <v>17.56207439232494</v>
+        <v>13.94525975024595</v>
       </c>
       <c r="F20">
-        <v>20.71163708579807</v>
+        <v>26.98459769981107</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2.764121123325338</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.440775735622923</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>13.25676098783098</v>
+        <v>13.28102071423227</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.08207922927525</v>
       </c>
       <c r="M20">
-        <v>17.50709270798301</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.39223836666854</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>15.83686252302519</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.07296261717694</v>
+      </c>
+      <c r="Q20">
+        <v>17.76535069186416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.17867446299899</v>
+        <v>25.86726871920723</v>
       </c>
       <c r="C21">
-        <v>8.175638598136658</v>
+        <v>20.25716591404577</v>
       </c>
       <c r="D21">
-        <v>5.348736856448135</v>
+        <v>9.505128200115836</v>
       </c>
       <c r="E21">
-        <v>18.75120982027646</v>
+        <v>14.77011046746101</v>
       </c>
       <c r="F21">
-        <v>21.408755511021</v>
+        <v>28.14700564921707</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>3.066622932107824</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.640428922741934</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>13.97599583215103</v>
+        <v>13.32508254344451</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.433604039586911</v>
       </c>
       <c r="M21">
-        <v>18.57954198419782</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>11.11822575977248</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>16.10939975015773</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.01036738602227</v>
+      </c>
+      <c r="Q21">
+        <v>18.33611090018696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.75657995889712</v>
+        <v>26.80271853966468</v>
       </c>
       <c r="C22">
-        <v>8.391660600822217</v>
+        <v>20.93711589578565</v>
       </c>
       <c r="D22">
-        <v>5.456107222266827</v>
+        <v>9.763103566678144</v>
       </c>
       <c r="E22">
-        <v>19.50395145189167</v>
+        <v>15.17776573312725</v>
       </c>
       <c r="F22">
-        <v>21.87269771851222</v>
+        <v>28.82981486435056</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>3.252223087400925</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.763488493805899</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>14.42849348659955</v>
+        <v>13.35688253768798</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.60403386865541</v>
       </c>
       <c r="M22">
-        <v>19.25531599191262</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>10.94057737430681</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>16.30110300168303</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.9746962896286</v>
+      </c>
+      <c r="Q22">
+        <v>18.6850470263516</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.45035240077621</v>
+        <v>26.3226900046815</v>
       </c>
       <c r="C23">
-        <v>8.276994484645261</v>
+        <v>20.55030608156842</v>
       </c>
       <c r="D23">
-        <v>5.399096021068638</v>
+        <v>9.621138890060783</v>
       </c>
       <c r="E23">
-        <v>19.10439488444208</v>
+        <v>14.95959227581289</v>
       </c>
       <c r="F23">
-        <v>21.62434287446503</v>
+        <v>28.49002281579882</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>3.154209878968408</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.695217738489804</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>14.18858971267524</v>
+        <v>13.35921329975846</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.514309344822784</v>
       </c>
       <c r="M23">
-        <v>18.89691594692091</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>11.03527219513536</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>16.19752437504281</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.98809251881247</v>
+      </c>
+      <c r="Q23">
+        <v>18.51854666745927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.24170464649602</v>
+        <v>24.39185882420708</v>
       </c>
       <c r="C24">
-        <v>7.828974655616546</v>
+        <v>19.06864944965777</v>
       </c>
       <c r="D24">
-        <v>5.176799821662403</v>
+        <v>9.074877167949404</v>
       </c>
       <c r="E24">
-        <v>17.54221778386999</v>
+        <v>14.10895749662154</v>
       </c>
       <c r="F24">
-        <v>20.70038906839319</v>
+        <v>27.14806481786264</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2.774020512962221</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.436875547757067</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>13.24470819091663</v>
+        <v>13.35023310040527</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.164446054008316</v>
       </c>
       <c r="M24">
-        <v>17.48913408730567</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.39674374808268</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>15.83263278410285</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.05371683886295</v>
+      </c>
+      <c r="Q24">
+        <v>17.85965400817474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.8319431280136</v>
+        <v>22.11779820543539</v>
       </c>
       <c r="C25">
-        <v>7.317014895679395</v>
+        <v>17.3432343264512</v>
       </c>
       <c r="D25">
-        <v>4.924047641747206</v>
+        <v>8.451365659529811</v>
       </c>
       <c r="E25">
-        <v>15.74864460386119</v>
+        <v>13.13451715559152</v>
       </c>
       <c r="F25">
-        <v>19.74205572939367</v>
+        <v>25.67014508211754</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2.346205545107964</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.149954678191933</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>12.15094654093272</v>
+        <v>13.36992961698482</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.769184045008267</v>
       </c>
       <c r="M25">
-        <v>15.86024721234657</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.79393731420818</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>15.49520434793646</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.13637857376106</v>
+      </c>
+      <c r="Q25">
+        <v>17.15915057855911</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.32194893151573</v>
+        <v>20.05714194414834</v>
       </c>
       <c r="C2">
-        <v>15.88253528142689</v>
+        <v>16.35899161896759</v>
       </c>
       <c r="D2">
-        <v>7.950143048612909</v>
+        <v>8.07211571768311</v>
       </c>
       <c r="E2">
-        <v>12.3648293916299</v>
+        <v>12.43456575527577</v>
       </c>
       <c r="F2">
-        <v>24.6278002157867</v>
+        <v>24.13447324728938</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.016947764429236</v>
+        <v>2.040112927804825</v>
       </c>
       <c r="I2">
-        <v>2.924696206973243</v>
+        <v>2.974247633074972</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>13.45592552449628</v>
+        <v>13.00289245348625</v>
       </c>
       <c r="L2">
-        <v>7.46596232091923</v>
+        <v>11.64039448052806</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.650753190297512</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.466674225505836</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.19544573418554</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>16.70726045659879</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.22091307089465</v>
+      </c>
+      <c r="S2">
+        <v>16.28691489742108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.97519401811632</v>
+        <v>18.76196775807566</v>
       </c>
       <c r="C3">
-        <v>14.86561083878118</v>
+        <v>15.25110343339125</v>
       </c>
       <c r="D3">
-        <v>7.60216070915022</v>
+        <v>7.714307247977279</v>
       </c>
       <c r="E3">
-        <v>11.81810170593469</v>
+        <v>11.88911725865004</v>
       </c>
       <c r="F3">
-        <v>23.87610803939693</v>
+        <v>23.44173819856416</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.782201515000627</v>
+        <v>1.813351746426475</v>
       </c>
       <c r="I3">
-        <v>2.769671352446391</v>
+        <v>2.8344239208052</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>13.49870333418684</v>
+        <v>13.0805587346946</v>
       </c>
       <c r="L3">
-        <v>7.250635039782432</v>
+        <v>11.79108065308217</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.613434533439318</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.256858696239431</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.24797946968691</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>16.37898605556484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.24607553873938</v>
+      </c>
+      <c r="S3">
+        <v>16.00435836461542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.09503106939723</v>
+        <v>17.91531327111837</v>
       </c>
       <c r="C4">
-        <v>14.20837009018014</v>
+        <v>14.53434845613682</v>
       </c>
       <c r="D4">
-        <v>7.381315648854772</v>
+        <v>7.487441364920282</v>
       </c>
       <c r="E4">
-        <v>11.46933059431639</v>
+        <v>11.54139478768244</v>
       </c>
       <c r="F4">
-        <v>23.41039722508173</v>
+        <v>23.01212738840421</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.632687293936085</v>
+        <v>1.668860138927723</v>
       </c>
       <c r="I4">
-        <v>2.671804875413463</v>
+        <v>2.746265098820914</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>13.52993842151959</v>
+        <v>13.13182904937228</v>
       </c>
       <c r="L4">
-        <v>7.114379832354964</v>
+        <v>11.8852277876149</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.613914747587397</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.124135084441395</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.28309272961214</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>16.18062665422042</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.26483118862115</v>
+      </c>
+      <c r="S4">
+        <v>15.83347894326787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.71744644177967</v>
+        <v>17.55189459213076</v>
       </c>
       <c r="C5">
-        <v>13.94180069054864</v>
+        <v>14.24265184771667</v>
       </c>
       <c r="D5">
-        <v>7.291241903807805</v>
+        <v>7.39492165241704</v>
       </c>
       <c r="E5">
-        <v>11.32460715316322</v>
+        <v>11.39717111270473</v>
       </c>
       <c r="F5">
-        <v>23.21247640538386</v>
+        <v>22.82889982620379</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.570164562352272</v>
+        <v>1.608420634842298</v>
       </c>
       <c r="I5">
-        <v>2.631821017379981</v>
+        <v>2.710574844158551</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>13.53874836497435</v>
+        <v>13.14864773589499</v>
       </c>
       <c r="L5">
-        <v>7.057604916660385</v>
+        <v>11.91955571645816</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.617006281264171</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.068839515214279</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.29914729048827</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>16.09488453804435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.27442175049985</v>
+      </c>
+      <c r="S5">
+        <v>15.75881631453163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.64725819896604</v>
+        <v>17.48413550366272</v>
       </c>
       <c r="C6">
-        <v>13.90867684647039</v>
+        <v>14.2053659693572</v>
       </c>
       <c r="D6">
-        <v>7.278189293431486</v>
+        <v>7.381456292618835</v>
       </c>
       <c r="E6">
-        <v>11.30109915098527</v>
+        <v>11.37374985942817</v>
       </c>
       <c r="F6">
-        <v>23.17060428990223</v>
+        <v>22.78952215891534</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.561727694410086</v>
+        <v>1.598038146968802</v>
       </c>
       <c r="I6">
-        <v>2.626060346774258</v>
+        <v>2.705865485612707</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>13.53402895679982</v>
+        <v>13.14546433234085</v>
       </c>
       <c r="L6">
-        <v>7.047789807621426</v>
+        <v>11.91984842187694</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.614261194143934</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.0592765952425</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.30313895743617</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>16.07363653748826</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.27745741772265</v>
+      </c>
+      <c r="S6">
+        <v>15.73946599269295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.07220186130152</v>
+        <v>17.89280045070434</v>
       </c>
       <c r="C7">
-        <v>14.23584019464522</v>
+        <v>14.56164796297834</v>
       </c>
       <c r="D7">
-        <v>7.385498954920953</v>
+        <v>7.491572762428328</v>
       </c>
       <c r="E7">
-        <v>11.46931036467482</v>
+        <v>11.5413798105579</v>
       </c>
       <c r="F7">
-        <v>23.38350122069586</v>
+        <v>22.98560253253594</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.631121162136923</v>
+        <v>1.667339079518408</v>
       </c>
       <c r="I7">
-        <v>2.673399117369073</v>
+        <v>2.748766754223846</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>13.51297056053699</v>
+        <v>13.11563320317516</v>
       </c>
       <c r="L7">
-        <v>7.112731941289425</v>
+        <v>11.87124843064434</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.603560041656467</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.122519018278284</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.28688689761975</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>16.16029913713267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.26885334763474</v>
+      </c>
+      <c r="S7">
+        <v>15.81350353799037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.84689742489736</v>
+        <v>19.59965299573854</v>
       </c>
       <c r="C8">
-        <v>15.57663458380654</v>
+        <v>16.02262914217888</v>
       </c>
       <c r="D8">
-        <v>7.838462991727968</v>
+        <v>7.957034684192473</v>
       </c>
       <c r="E8">
-        <v>12.18152275848568</v>
+        <v>12.25165293849374</v>
       </c>
       <c r="F8">
-        <v>24.33876260647165</v>
+        <v>23.86601569691774</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.93619968437782</v>
+        <v>1.962118974570498</v>
       </c>
       <c r="I8">
-        <v>2.874022429778021</v>
+        <v>2.929787734099784</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>13.44702627106845</v>
+        <v>13.00736453708404</v>
       </c>
       <c r="L8">
-        <v>7.391466686881411</v>
+        <v>11.67455888816649</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.61728506584449</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.394064917899354</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.21801910963051</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>16.56870649261598</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.234424146243</v>
+      </c>
+      <c r="S8">
+        <v>16.16453833102442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.93554315484159</v>
+        <v>22.56926291191713</v>
       </c>
       <c r="C9">
-        <v>17.89620295038431</v>
+        <v>18.54902392023299</v>
       </c>
       <c r="D9">
-        <v>8.657462765169852</v>
+        <v>8.800246900265272</v>
       </c>
       <c r="E9">
-        <v>13.46716752638725</v>
+        <v>13.53528976908951</v>
       </c>
       <c r="F9">
-        <v>26.21056153065649</v>
+        <v>25.59150629907638</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.493904095761962</v>
+        <v>2.500474820964194</v>
       </c>
       <c r="I9">
-        <v>3.244294667288156</v>
+        <v>3.263176925505715</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>13.39013369373572</v>
+        <v>12.85457241596301</v>
       </c>
       <c r="L9">
-        <v>7.906030700018515</v>
+        <v>11.32424205943781</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.851541302246558</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.895683594931241</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.09946631211661</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>17.42552576988584</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.18632989980041</v>
+      </c>
+      <c r="S9">
+        <v>16.90486052646782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.90193445973201</v>
+        <v>24.46066772449519</v>
       </c>
       <c r="C10">
-        <v>19.39236007310202</v>
+        <v>20.17260370449964</v>
       </c>
       <c r="D10">
-        <v>9.129278361517521</v>
+        <v>9.287598258267595</v>
       </c>
       <c r="E10">
-        <v>14.11790785438597</v>
+        <v>14.1846043964195</v>
       </c>
       <c r="F10">
-        <v>27.35703404447389</v>
+        <v>26.64009779190943</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.863374556639089</v>
+        <v>2.856528051513197</v>
       </c>
       <c r="I10">
-        <v>3.50017259350354</v>
+        <v>3.494630817936482</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>13.31935197691539</v>
+        <v>12.71403968892409</v>
       </c>
       <c r="L10">
-        <v>8.153070031679603</v>
+        <v>11.04040438044298</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.086964304030309</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.134352640173168</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.04573857736178</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>17.96620233330191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.18652836058117</v>
+      </c>
+      <c r="S10">
+        <v>17.36542948941467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.34944218262011</v>
+        <v>24.91204572675948</v>
       </c>
       <c r="C11">
-        <v>19.54229528783369</v>
+        <v>20.31314264085797</v>
       </c>
       <c r="D11">
-        <v>8.557453059015261</v>
+        <v>8.708562350939124</v>
       </c>
       <c r="E11">
-        <v>12.51196890234621</v>
+        <v>12.57121315488567</v>
       </c>
       <c r="F11">
-        <v>26.27563811054959</v>
+        <v>25.5768086761668</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.529245034810064</v>
+        <v>3.521136735952672</v>
       </c>
       <c r="I11">
-        <v>3.572726491768442</v>
+        <v>3.562488919041902</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>12.83810309020647</v>
+        <v>12.26815418945118</v>
       </c>
       <c r="L11">
-        <v>7.376094512399136</v>
+        <v>10.66425780473503</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.856283572257042</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.357472594413293</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.17818060988891</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>17.4017826407559</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.34117891842148</v>
+      </c>
+      <c r="S11">
+        <v>16.81747473293565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.34701294560308</v>
+        <v>24.9283122386263</v>
       </c>
       <c r="C12">
-        <v>19.32453491935057</v>
+        <v>20.06104791386796</v>
       </c>
       <c r="D12">
-        <v>7.969030068723609</v>
+        <v>8.11021004830609</v>
       </c>
       <c r="E12">
-        <v>11.0738350952764</v>
+        <v>11.12573478405955</v>
       </c>
       <c r="F12">
-        <v>25.13396213849473</v>
+        <v>24.47157670963531</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.606316937171188</v>
+        <v>4.600169310161736</v>
       </c>
       <c r="I12">
-        <v>3.580160517301195</v>
+        <v>3.569248201288906</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>12.47033117614989</v>
+        <v>11.94508066283438</v>
       </c>
       <c r="L12">
-        <v>6.751027510709837</v>
+        <v>10.43117847967958</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.619688903366888</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.734477320088221</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.30296271283833</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>16.82507909472785</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.47097219684738</v>
+      </c>
+      <c r="S12">
+        <v>16.27204556942543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.97856198469991</v>
+        <v>24.59186361428881</v>
       </c>
       <c r="C13">
-        <v>18.84049725736741</v>
+        <v>19.52021679131474</v>
       </c>
       <c r="D13">
-        <v>7.327473405074571</v>
+        <v>7.455858837831392</v>
       </c>
       <c r="E13">
-        <v>9.682106339074668</v>
+        <v>9.726275140905495</v>
       </c>
       <c r="F13">
-        <v>23.82230223906306</v>
+        <v>23.21390612693268</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.8122838637261</v>
+        <v>5.808651757630403</v>
       </c>
       <c r="I13">
-        <v>3.541046298161332</v>
+        <v>3.533907796641817</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>12.1422276813778</v>
+        <v>11.67263996078036</v>
       </c>
       <c r="L13">
-        <v>6.221626812553918</v>
+        <v>10.26848233142442</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.34392783363057</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.209001675234214</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.43142023619132</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>16.16824500909294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.59224332450323</v>
+      </c>
+      <c r="S13">
+        <v>15.66081939290007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.54575871878883</v>
+        <v>24.18795425388646</v>
       </c>
       <c r="C14">
-        <v>18.38158570210597</v>
+        <v>19.01044423863879</v>
       </c>
       <c r="D14">
-        <v>6.852491755294407</v>
+        <v>6.970500442466093</v>
       </c>
       <c r="E14">
-        <v>8.761604974791293</v>
+        <v>8.800053535132477</v>
       </c>
       <c r="F14">
-        <v>22.81284036145529</v>
+        <v>22.25066704581877</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.702593047483645</v>
+        <v>6.700593979259914</v>
       </c>
       <c r="I14">
-        <v>3.493628359262006</v>
+        <v>3.491414522708669</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>11.92921320151887</v>
+        <v>11.50310212625222</v>
       </c>
       <c r="L14">
-        <v>5.924439461659254</v>
+        <v>10.18132208479688</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.134284536504653</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.915459308051472</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.52402745992191</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>15.66490682965104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.67434477087034</v>
+      </c>
+      <c r="S14">
+        <v>15.19616488086648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.35484455100912</v>
+        <v>24.00706860127364</v>
       </c>
       <c r="C15">
-        <v>18.22031502165775</v>
+        <v>18.83175510495838</v>
       </c>
       <c r="D15">
-        <v>6.726183011947697</v>
+        <v>6.841157112807443</v>
       </c>
       <c r="E15">
-        <v>8.541813199854529</v>
+        <v>8.579109087628623</v>
       </c>
       <c r="F15">
-        <v>22.52424173153681</v>
+        <v>21.97708786427131</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.905272377082191</v>
+        <v>6.903807724365975</v>
       </c>
       <c r="I15">
-        <v>3.472879271217093</v>
+        <v>3.473290931315597</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>11.88123413325796</v>
+        <v>11.46798920912796</v>
       </c>
       <c r="L15">
-        <v>5.861601531100975</v>
+        <v>10.16943675523116</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.073240229913688</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.853856038484802</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.54796197253693</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>15.52030228935032</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.69346449403555</v>
+      </c>
+      <c r="S15">
+        <v>15.06403076235128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.59047214902562</v>
+        <v>23.26970634756409</v>
       </c>
       <c r="C16">
-        <v>17.68338829731947</v>
+        <v>18.24912640703542</v>
       </c>
       <c r="D16">
-        <v>6.627393700863722</v>
+        <v>6.738333323785557</v>
       </c>
       <c r="E16">
-        <v>8.482698889668974</v>
+        <v>8.523628709832941</v>
       </c>
       <c r="F16">
-        <v>22.2370441473962</v>
+        <v>21.72265237044329</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.627460234843614</v>
+        <v>6.627942784810378</v>
       </c>
       <c r="I16">
-        <v>3.373800418314699</v>
+        <v>3.384401360132689</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>11.97061195525001</v>
+        <v>11.57467013628992</v>
       </c>
       <c r="L16">
-        <v>5.848083609826197</v>
+        <v>10.28991609759002</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.029028491451814</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.84336989417414</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.53555855518794</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>15.39178740783879</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.65962660768984</v>
+      </c>
+      <c r="S16">
+        <v>14.96186983438852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.23233933976441</v>
+        <v>22.91649851246657</v>
       </c>
       <c r="C17">
-        <v>17.5209051487779</v>
+        <v>18.07950118212691</v>
       </c>
       <c r="D17">
-        <v>6.810758232107839</v>
+        <v>6.924172972074411</v>
       </c>
       <c r="E17">
-        <v>8.917990408671297</v>
+        <v>8.964445443589504</v>
       </c>
       <c r="F17">
-        <v>22.56705544455676</v>
+        <v>22.05262243877532</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.890625792951436</v>
+        <v>5.892190417239043</v>
       </c>
       <c r="I17">
-        <v>3.32287868318795</v>
+        <v>3.338787566514693</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>12.15045472794497</v>
+        <v>11.74524752897717</v>
       </c>
       <c r="L17">
-        <v>5.981676807337719</v>
+        <v>10.43429880185488</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.104044569370902</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.977346262097917</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.47868023246728</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>15.56609345509794</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.59198982479119</v>
+      </c>
+      <c r="S17">
+        <v>15.13542575111147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.20793167219603</v>
+        <v>22.87808219426112</v>
       </c>
       <c r="C18">
-        <v>17.65024326249157</v>
+        <v>18.23488832544069</v>
       </c>
       <c r="D18">
-        <v>7.261453789254303</v>
+        <v>7.382885295904308</v>
       </c>
       <c r="E18">
-        <v>9.919435336588172</v>
+        <v>9.97255862813398</v>
       </c>
       <c r="F18">
-        <v>23.47932792309216</v>
+        <v>22.93678676918748</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.725786842589199</v>
+        <v>4.727987947905055</v>
       </c>
       <c r="I18">
-        <v>3.306363006607119</v>
+        <v>3.322723796824661</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>12.44168726172004</v>
+        <v>12.00318177285362</v>
       </c>
       <c r="L18">
-        <v>6.33455462700404</v>
+        <v>10.6289182093909</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.291026755113601</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.328387297647119</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.37550371002281</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>16.03061811663837</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.48504559194342</v>
+      </c>
+      <c r="S18">
+        <v>15.57598687848316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.42823523921535</v>
+        <v>23.07061114838721</v>
       </c>
       <c r="C19">
-        <v>18.04943733994859</v>
+        <v>18.68438445585996</v>
       </c>
       <c r="D19">
-        <v>7.904958709648444</v>
+        <v>8.037953886261441</v>
       </c>
       <c r="E19">
-        <v>11.39016230615663</v>
+        <v>11.44970814701335</v>
       </c>
       <c r="F19">
-        <v>24.74427419362789</v>
+        <v>24.15406741398704</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.487580228355923</v>
+        <v>3.489753630849336</v>
       </c>
       <c r="I19">
-        <v>3.327464668621694</v>
+        <v>3.342275733404892</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>12.77791887025788</v>
+        <v>12.29059801004911</v>
       </c>
       <c r="L19">
-        <v>6.928708135042934</v>
+        <v>10.83543937126713</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.531086133817622</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.919230533321913</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.25658408430339</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>16.65795850716408</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.3678736385643</v>
+      </c>
+      <c r="S19">
+        <v>16.1632732004521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.35731654339741</v>
+        <v>23.93575198574761</v>
       </c>
       <c r="C20">
-        <v>19.08130245604544</v>
+        <v>19.82886400319998</v>
       </c>
       <c r="D20">
-        <v>9.017432686480683</v>
+        <v>9.171646556174974</v>
       </c>
       <c r="E20">
-        <v>13.94525975024595</v>
+        <v>14.0123073571126</v>
       </c>
       <c r="F20">
-        <v>26.98459769981107</v>
+        <v>26.29408771363178</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.764121123325338</v>
+        <v>2.760849690012583</v>
       </c>
       <c r="I20">
-        <v>3.440775735622923</v>
+        <v>3.444578580616671</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>13.28102071423227</v>
+        <v>12.69789123526529</v>
       </c>
       <c r="L20">
-        <v>8.08207922927525</v>
+        <v>11.07942534899225</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.973145649641684</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.065583536913419</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.07296261717694</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>17.76535069186416</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.20070769384042</v>
+      </c>
+      <c r="S20">
+        <v>17.18663546061745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.86726871920723</v>
+        <v>25.38395299216932</v>
       </c>
       <c r="C21">
-        <v>20.25716591404577</v>
+        <v>21.10880466422434</v>
       </c>
       <c r="D21">
-        <v>9.505128200115836</v>
+        <v>9.673423189875322</v>
       </c>
       <c r="E21">
-        <v>14.77011046746101</v>
+        <v>14.83727537111797</v>
       </c>
       <c r="F21">
-        <v>28.14700564921707</v>
+        <v>27.37140622936591</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3.066622932107824</v>
+        <v>3.052616728089993</v>
       </c>
       <c r="I21">
-        <v>3.640428922741934</v>
+        <v>3.624492953578858</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>13.32508254344451</v>
+        <v>12.67368400849457</v>
       </c>
       <c r="L21">
-        <v>8.433604039586911</v>
+        <v>10.91756191767131</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.251463570472858</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.410226207697349</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.01036738602227</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>18.33611090018696</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.1803029541454</v>
+      </c>
+      <c r="S21">
+        <v>17.68656079285105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.80271853966468</v>
+        <v>26.28247822937954</v>
       </c>
       <c r="C22">
-        <v>20.93711589578565</v>
+        <v>21.84990607330215</v>
       </c>
       <c r="D22">
-        <v>9.763103566678144</v>
+        <v>9.93957168322906</v>
       </c>
       <c r="E22">
-        <v>15.17776573312725</v>
+        <v>15.24469276627249</v>
       </c>
       <c r="F22">
-        <v>28.82981486435056</v>
+        <v>28.00284811463201</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3.252223087400925</v>
+        <v>3.231386329342027</v>
       </c>
       <c r="I22">
-        <v>3.763488493805899</v>
+        <v>3.733972662563417</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>13.35688253768798</v>
+        <v>12.66197236275308</v>
       </c>
       <c r="L22">
-        <v>8.60403386865541</v>
+        <v>10.81070649612574</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.450244761622322</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.576482169002213</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.9746962896286</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>18.6850470263516</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.17192165191827</v>
+      </c>
+      <c r="S22">
+        <v>17.99225223799178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.3226900046815</v>
+        <v>25.82191926841911</v>
       </c>
       <c r="C23">
-        <v>20.55030608156842</v>
+        <v>21.43073332860522</v>
       </c>
       <c r="D23">
-        <v>9.621138890060783</v>
+        <v>9.793271214565568</v>
       </c>
       <c r="E23">
-        <v>14.95959227581289</v>
+        <v>15.02663100889801</v>
       </c>
       <c r="F23">
-        <v>28.49002281579882</v>
+        <v>27.69016465224895</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3.154209878968408</v>
+        <v>3.136986729088472</v>
       </c>
       <c r="I23">
-        <v>3.695217738489804</v>
+        <v>3.671768135684543</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839356</v>
       </c>
       <c r="K23">
-        <v>13.35921329975846</v>
+        <v>12.6864708216527</v>
       </c>
       <c r="L23">
-        <v>8.514309344822784</v>
+        <v>10.87941741231798</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.359739083817086</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.48895782900259</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.98809251881247</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>18.51854666745927</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.17022922162931</v>
+      </c>
+      <c r="S23">
+        <v>17.84852638261939</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.39185882420708</v>
+        <v>23.96773925707116</v>
       </c>
       <c r="C24">
-        <v>19.06864944965777</v>
+        <v>19.82045757262455</v>
       </c>
       <c r="D24">
-        <v>9.074877167949404</v>
+        <v>9.230136876496156</v>
       </c>
       <c r="E24">
-        <v>14.10895749662154</v>
+        <v>14.17653001033148</v>
       </c>
       <c r="F24">
-        <v>27.14806481786264</v>
+        <v>26.45291253181407</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.774020512962221</v>
+        <v>2.770615579666823</v>
       </c>
       <c r="I24">
-        <v>3.436875547757067</v>
+        <v>3.43866592254326</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>13.35023310040527</v>
+        <v>12.76040421912033</v>
       </c>
       <c r="L24">
-        <v>8.164446054008316</v>
+        <v>11.12437220485781</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.023962207469289</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.147692836339989</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.05371683886295</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>17.85965400817474</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.18023636767744</v>
+      </c>
+      <c r="S24">
+        <v>17.27683539303317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.11779820543539</v>
+        <v>21.78244197728462</v>
       </c>
       <c r="C25">
-        <v>17.3432343264512</v>
+        <v>17.94322975779085</v>
       </c>
       <c r="D25">
-        <v>8.451365659529811</v>
+        <v>8.587672706482889</v>
       </c>
       <c r="E25">
-        <v>13.13451715559152</v>
+        <v>13.20303958589323</v>
       </c>
       <c r="F25">
-        <v>25.67014508211754</v>
+        <v>25.09073233332401</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.346205545107964</v>
+        <v>2.357964406332109</v>
       </c>
       <c r="I25">
-        <v>3.149954678191933</v>
+        <v>3.180120804079459</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>13.36992961698482</v>
+        <v>12.86324481367889</v>
       </c>
       <c r="L25">
-        <v>7.769184045008267</v>
+        <v>11.39646898590219</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.744474928322473</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.762237350629864</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.13637857376106</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>17.15915057855911</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.20450051687456</v>
+      </c>
+      <c r="S25">
+        <v>16.670671221415</v>
       </c>
     </row>
   </sheetData>
